--- a/api/api/template.xlsx
+++ b/api/api/template.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="82">
   <si>
     <t>SMAI CO., LTD</t>
   </si>
@@ -529,18 +529,6 @@
     </r>
   </si>
   <si>
-    <t>FOB Ningbo</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Times New Roman Regular"/>
-        <charset val="134"/>
-      </rPr>
-      <t>TOTAL</t>
-    </r>
     <r>
       <rPr>
         <b/>
@@ -548,16 +536,39 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>：</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Times New Roman Regular"/>
-        <charset val="134"/>
-      </rPr>
-      <t>SAY US DOLLARS ONE HUNDRED AND TWENTY-SEVEN THOUSAND TWO HUNDRED ONLY</t>
+      <t>支付条款</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Times New Roman Regular"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> TERMS OF PAYMENT</t>
+    </r>
+  </si>
+  <si>
+    <t>3.1</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>运输路线</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Times New Roman Regular"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> TRANSPORT ROUTE</t>
     </r>
   </si>
   <si>
@@ -568,93 +579,6 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>支付条款</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Times New Roman Regular"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> TERMS OF PAYMENT</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>付全款提车（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman Regular"/>
-        <charset val="134"/>
-      </rPr>
-      <t>100% Payment by T/T</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）</t>
-    </r>
-  </si>
-  <si>
-    <t>3.1</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="宋体-简"/>
-        <charset val="134"/>
-      </rPr>
-      <t>运输路线</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Times New Roman Regular"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> TRANSPORT ROUTE</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体-简"/>
-        <charset val="134"/>
-      </rPr>
-      <t>宁波交车</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman Regular"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> Ningbo Delivery</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
       <t>运输方式</t>
     </r>
     <r>
@@ -665,24 +589,6 @@
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> MODE OF SHIPMENT</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>海运</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman Regular"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> Sea</t>
     </r>
   </si>
   <si>
@@ -2556,7 +2462,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="134">
+  <cellXfs count="133">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2670,9 +2576,6 @@
     </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -3020,89 +2923,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>145415</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>1215390</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1723390</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>741045</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1" descr="昇脉公章"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6986905" y="28587065"/>
-          <a:ext cx="1577975" cy="1583055"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>989965</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>136525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>484505</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>753745</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="图片 3"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId2" r:link="rId3">
-          <a:lum contrast="66000"/>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2343785" y="29337000"/>
-          <a:ext cx="2119630" cy="845820"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3397,7 +3217,7 @@
   <dimension ref="A1:I51"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="149" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:D3"/>
+      <selection activeCell="A4" sqref="$A4:$XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -3413,606 +3233,596 @@
   </cols>
   <sheetData>
     <row r="1" ht="51.95" customHeight="1" spans="1:7">
-      <c r="A1" s="60"/>
-      <c r="B1" s="61" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
+      <c r="A1" s="59"/>
+      <c r="B1" s="60" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
     </row>
     <row r="2" s="7" customFormat="1" ht="50.1" customHeight="1" spans="1:8">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="113"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="112"/>
     </row>
     <row r="3" s="1" customFormat="1" ht="39.95" customHeight="1" spans="1:7">
-      <c r="A3" s="64"/>
-      <c r="B3" s="65" t="s">
+      <c r="A3" s="63"/>
+      <c r="B3" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="66"/>
-      <c r="D3" s="67"/>
-      <c r="E3" s="65" t="s">
+      <c r="C3" s="65"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="114"/>
-      <c r="G3" s="115"/>
-    </row>
-    <row r="4" s="1" customFormat="1" ht="40" customHeight="1" spans="1:7">
-      <c r="A4" s="64"/>
-      <c r="B4" s="65" t="s">
+      <c r="F3" s="113"/>
+      <c r="G3" s="114"/>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="66" customHeight="1" spans="1:7">
+      <c r="A4" s="63"/>
+      <c r="B4" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="116" t="s">
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="115" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="114"/>
-      <c r="G4" s="117"/>
+      <c r="F4" s="113"/>
+      <c r="G4" s="116"/>
     </row>
     <row r="5" s="1" customFormat="1" ht="20.25" customHeight="1" spans="1:7">
-      <c r="A5" s="64"/>
-      <c r="B5" s="65" t="s">
+      <c r="A5" s="63"/>
+      <c r="B5" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="69" t="s">
+      <c r="C5" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="69"/>
-      <c r="E5" s="65" t="s">
+      <c r="D5" s="68"/>
+      <c r="E5" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="114"/>
-      <c r="G5" s="118"/>
+      <c r="F5" s="113"/>
+      <c r="G5" s="117"/>
     </row>
     <row r="6" s="1" customFormat="1" ht="24.75" customHeight="1" spans="1:7">
-      <c r="A6" s="64"/>
-      <c r="B6" s="65" t="s">
+      <c r="A6" s="63"/>
+      <c r="B6" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="70" t="s">
+      <c r="C6" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="70"/>
-      <c r="E6" s="119" t="s">
+      <c r="D6" s="69"/>
+      <c r="E6" s="118" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="70"/>
-      <c r="G6" s="120"/>
+      <c r="F6" s="69"/>
+      <c r="G6" s="119"/>
     </row>
     <row r="7" s="1" customFormat="1" ht="81" customHeight="1" spans="1:7">
-      <c r="A7" s="71" t="s">
+      <c r="A7" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="65" t="s">
+      <c r="B7" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="72"/>
-      <c r="D7" s="72"/>
-      <c r="E7" s="121" t="s">
+      <c r="C7" s="71"/>
+      <c r="D7" s="71"/>
+      <c r="E7" s="120" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="121"/>
-      <c r="G7" s="121"/>
+      <c r="F7" s="120"/>
+      <c r="G7" s="120"/>
     </row>
     <row r="8" s="2" customFormat="1" ht="62" customHeight="1" spans="1:7">
-      <c r="A8" s="64"/>
-      <c r="B8" s="65" t="s">
+      <c r="A8" s="63"/>
+      <c r="B8" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="67"/>
-      <c r="D8" s="67"/>
-      <c r="E8" s="121"/>
-      <c r="F8" s="121"/>
-      <c r="G8" s="121"/>
+      <c r="C8" s="66"/>
+      <c r="D8" s="66"/>
+      <c r="E8" s="120"/>
+      <c r="F8" s="120"/>
+      <c r="G8" s="120"/>
     </row>
     <row r="9" s="1" customFormat="1" ht="34.5" customHeight="1" spans="1:7">
-      <c r="A9" s="73"/>
-      <c r="B9" s="74" t="s">
+      <c r="A9" s="72"/>
+      <c r="B9" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="72"/>
-      <c r="D9" s="72"/>
-      <c r="E9" s="72"/>
-      <c r="F9" s="72"/>
-      <c r="G9" s="72"/>
-    </row>
-    <row r="10" s="59" customFormat="1" ht="71.1" customHeight="1" spans="1:9">
-      <c r="A10" s="75">
+      <c r="C9" s="71"/>
+      <c r="D9" s="71"/>
+      <c r="E9" s="71"/>
+      <c r="F9" s="71"/>
+      <c r="G9" s="71"/>
+    </row>
+    <row r="10" s="58" customFormat="1" ht="71.1" customHeight="1" spans="1:9">
+      <c r="A10" s="74">
         <v>1</v>
       </c>
-      <c r="B10" s="76" t="s">
+      <c r="B10" s="75" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="76" t="s">
+      <c r="C10" s="75" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="77" t="s">
+      <c r="D10" s="76" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="76" t="s">
+      <c r="E10" s="75" t="s">
         <v>18</v>
       </c>
-      <c r="F10" s="76" t="s">
+      <c r="F10" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="G10" s="122" t="s">
+      <c r="G10" s="121" t="s">
         <v>20</v>
       </c>
-      <c r="I10" s="133"/>
-    </row>
-    <row r="11" s="59" customFormat="1" ht="48.95" customHeight="1" spans="1:9">
-      <c r="A11" s="75"/>
-      <c r="B11" s="78"/>
-      <c r="C11" s="79"/>
-      <c r="D11" s="79"/>
-      <c r="E11" s="79"/>
-      <c r="F11" s="123"/>
-      <c r="G11" s="123"/>
-      <c r="H11" s="124"/>
-      <c r="I11" s="133"/>
-    </row>
-    <row r="12" s="59" customFormat="1" ht="42" customHeight="1" spans="1:9">
-      <c r="A12" s="75"/>
-      <c r="B12" s="80"/>
-      <c r="C12" s="81"/>
-      <c r="D12" s="82"/>
-      <c r="E12" s="79"/>
-      <c r="F12" s="123"/>
-      <c r="G12" s="123"/>
-      <c r="H12" s="124"/>
-      <c r="I12" s="133"/>
-    </row>
-    <row r="13" s="59" customFormat="1" ht="42" customHeight="1" spans="1:9">
-      <c r="A13" s="75"/>
-      <c r="B13" s="80"/>
-      <c r="C13" s="81"/>
-      <c r="D13" s="82"/>
-      <c r="E13" s="79"/>
-      <c r="F13" s="123"/>
-      <c r="G13" s="123"/>
-      <c r="H13" s="124"/>
-      <c r="I13" s="133"/>
-    </row>
-    <row r="14" s="59" customFormat="1" ht="42" customHeight="1" spans="1:9">
-      <c r="A14" s="75"/>
-      <c r="B14" s="80"/>
-      <c r="C14" s="81"/>
-      <c r="D14" s="82"/>
-      <c r="E14" s="79"/>
-      <c r="F14" s="123"/>
-      <c r="G14" s="123"/>
-      <c r="H14" s="124"/>
-      <c r="I14" s="133"/>
-    </row>
-    <row r="15" s="59" customFormat="1" ht="42" customHeight="1" spans="1:9">
-      <c r="A15" s="75"/>
-      <c r="B15" s="80"/>
-      <c r="C15" s="81"/>
-      <c r="D15" s="82"/>
-      <c r="E15" s="79"/>
-      <c r="F15" s="123"/>
-      <c r="G15" s="123"/>
-      <c r="H15" s="124"/>
-      <c r="I15" s="133"/>
-    </row>
-    <row r="16" s="59" customFormat="1" ht="42" customHeight="1" spans="1:9">
-      <c r="A16" s="75"/>
-      <c r="B16" s="80"/>
-      <c r="C16" s="81"/>
-      <c r="D16" s="82"/>
-      <c r="E16" s="79"/>
-      <c r="F16" s="123"/>
-      <c r="G16" s="123"/>
-      <c r="H16" s="124"/>
-      <c r="I16" s="133"/>
-    </row>
-    <row r="17" s="59" customFormat="1" ht="42" customHeight="1" spans="1:9">
-      <c r="A17" s="75"/>
-      <c r="B17" s="80"/>
-      <c r="C17" s="81"/>
-      <c r="D17" s="82"/>
-      <c r="E17" s="79"/>
-      <c r="F17" s="123"/>
-      <c r="G17" s="123"/>
-      <c r="H17" s="124"/>
-      <c r="I17" s="133"/>
-    </row>
-    <row r="18" s="59" customFormat="1" ht="42" customHeight="1" spans="1:9">
-      <c r="A18" s="75"/>
-      <c r="B18" s="80"/>
-      <c r="C18" s="81"/>
-      <c r="D18" s="82"/>
-      <c r="E18" s="79"/>
-      <c r="F18" s="123"/>
-      <c r="G18" s="123"/>
-      <c r="H18" s="124"/>
-      <c r="I18" s="133"/>
-    </row>
-    <row r="19" s="59" customFormat="1" ht="42" customHeight="1" spans="1:9">
-      <c r="A19" s="75"/>
-      <c r="B19" s="80"/>
-      <c r="C19" s="81"/>
-      <c r="D19" s="82"/>
-      <c r="E19" s="79"/>
-      <c r="F19" s="123"/>
-      <c r="G19" s="123"/>
-      <c r="H19" s="124"/>
-      <c r="I19" s="133"/>
-    </row>
-    <row r="20" s="59" customFormat="1" ht="42" customHeight="1" spans="1:9">
-      <c r="A20" s="75"/>
-      <c r="B20" s="80"/>
-      <c r="C20" s="81"/>
-      <c r="D20" s="82"/>
-      <c r="E20" s="79"/>
-      <c r="F20" s="123"/>
-      <c r="G20" s="123"/>
-      <c r="H20" s="124"/>
-      <c r="I20" s="133"/>
-    </row>
-    <row r="21" s="59" customFormat="1" ht="42" customHeight="1" spans="1:9">
-      <c r="A21" s="75"/>
-      <c r="B21" s="80" t="s">
+      <c r="I10" s="132"/>
+    </row>
+    <row r="11" s="58" customFormat="1" ht="48.95" customHeight="1" spans="1:9">
+      <c r="A11" s="74"/>
+      <c r="B11" s="77"/>
+      <c r="C11" s="78"/>
+      <c r="D11" s="78"/>
+      <c r="E11" s="78"/>
+      <c r="F11" s="122"/>
+      <c r="G11" s="122"/>
+      <c r="H11" s="123"/>
+      <c r="I11" s="132"/>
+    </row>
+    <row r="12" s="58" customFormat="1" ht="42" customHeight="1" spans="1:9">
+      <c r="A12" s="74"/>
+      <c r="B12" s="79"/>
+      <c r="C12" s="80"/>
+      <c r="D12" s="81"/>
+      <c r="E12" s="78"/>
+      <c r="F12" s="122"/>
+      <c r="G12" s="122"/>
+      <c r="H12" s="123"/>
+      <c r="I12" s="132"/>
+    </row>
+    <row r="13" s="58" customFormat="1" ht="42" customHeight="1" spans="1:9">
+      <c r="A13" s="74"/>
+      <c r="B13" s="79"/>
+      <c r="C13" s="80"/>
+      <c r="D13" s="81"/>
+      <c r="E13" s="78"/>
+      <c r="F13" s="122"/>
+      <c r="G13" s="122"/>
+      <c r="H13" s="123"/>
+      <c r="I13" s="132"/>
+    </row>
+    <row r="14" s="58" customFormat="1" ht="42" customHeight="1" spans="1:9">
+      <c r="A14" s="74"/>
+      <c r="B14" s="79"/>
+      <c r="C14" s="80"/>
+      <c r="D14" s="81"/>
+      <c r="E14" s="78"/>
+      <c r="F14" s="122"/>
+      <c r="G14" s="122"/>
+      <c r="H14" s="123"/>
+      <c r="I14" s="132"/>
+    </row>
+    <row r="15" s="58" customFormat="1" ht="42" customHeight="1" spans="1:9">
+      <c r="A15" s="74"/>
+      <c r="B15" s="79"/>
+      <c r="C15" s="80"/>
+      <c r="D15" s="81"/>
+      <c r="E15" s="78"/>
+      <c r="F15" s="122"/>
+      <c r="G15" s="122"/>
+      <c r="H15" s="123"/>
+      <c r="I15" s="132"/>
+    </row>
+    <row r="16" s="58" customFormat="1" ht="42" customHeight="1" spans="1:9">
+      <c r="A16" s="74"/>
+      <c r="B16" s="79"/>
+      <c r="C16" s="80"/>
+      <c r="D16" s="81"/>
+      <c r="E16" s="78"/>
+      <c r="F16" s="122"/>
+      <c r="G16" s="122"/>
+      <c r="H16" s="123"/>
+      <c r="I16" s="132"/>
+    </row>
+    <row r="17" s="58" customFormat="1" ht="42" customHeight="1" spans="1:9">
+      <c r="A17" s="74"/>
+      <c r="B17" s="79"/>
+      <c r="C17" s="80"/>
+      <c r="D17" s="81"/>
+      <c r="E17" s="78"/>
+      <c r="F17" s="122"/>
+      <c r="G17" s="122"/>
+      <c r="H17" s="123"/>
+      <c r="I17" s="132"/>
+    </row>
+    <row r="18" s="58" customFormat="1" ht="42" customHeight="1" spans="1:9">
+      <c r="A18" s="74"/>
+      <c r="B18" s="79"/>
+      <c r="C18" s="80"/>
+      <c r="D18" s="81"/>
+      <c r="E18" s="78"/>
+      <c r="F18" s="122"/>
+      <c r="G18" s="122"/>
+      <c r="H18" s="123"/>
+      <c r="I18" s="132"/>
+    </row>
+    <row r="19" s="58" customFormat="1" ht="42" customHeight="1" spans="1:9">
+      <c r="A19" s="74"/>
+      <c r="B19" s="79"/>
+      <c r="C19" s="80"/>
+      <c r="D19" s="81"/>
+      <c r="E19" s="78"/>
+      <c r="F19" s="122"/>
+      <c r="G19" s="122"/>
+      <c r="H19" s="123"/>
+      <c r="I19" s="132"/>
+    </row>
+    <row r="20" s="58" customFormat="1" ht="42" customHeight="1" spans="1:9">
+      <c r="A20" s="74"/>
+      <c r="B20" s="79"/>
+      <c r="C20" s="80"/>
+      <c r="D20" s="81"/>
+      <c r="E20" s="78"/>
+      <c r="F20" s="122"/>
+      <c r="G20" s="122"/>
+      <c r="H20" s="123"/>
+      <c r="I20" s="132"/>
+    </row>
+    <row r="21" s="58" customFormat="1" ht="42" customHeight="1" spans="1:9">
+      <c r="A21" s="74"/>
+      <c r="B21" s="79" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="81"/>
-      <c r="D21" s="82"/>
-      <c r="E21" s="79"/>
-      <c r="F21" s="125" t="s">
+      <c r="C21" s="80"/>
+      <c r="D21" s="81"/>
+      <c r="E21" s="78"/>
+      <c r="F21" s="124" t="s">
         <v>22</v>
       </c>
-      <c r="G21" s="123">
+      <c r="G21" s="122">
         <f>SUM(G11:G20)</f>
         <v>0</v>
       </c>
-      <c r="H21" s="124"/>
-      <c r="I21" s="133"/>
+      <c r="H21" s="123"/>
+      <c r="I21" s="132"/>
     </row>
     <row r="22" s="1" customFormat="1" ht="40" customHeight="1" spans="1:7">
-      <c r="A22" s="83"/>
-      <c r="B22" s="80" t="s">
+      <c r="A22" s="82"/>
+      <c r="B22" s="79" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="81"/>
-      <c r="D22" s="79"/>
-      <c r="E22" s="79"/>
-      <c r="F22" s="126" t="s">
+      <c r="C22" s="80"/>
+      <c r="D22" s="78"/>
+      <c r="E22" s="78"/>
+      <c r="F22" s="125"/>
+      <c r="G22" s="126">
+        <f>G21</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" s="1" customFormat="1" ht="32.45" customHeight="1" spans="1:7">
+      <c r="A23" s="82"/>
+      <c r="B23" s="83"/>
+      <c r="C23" s="84"/>
+      <c r="D23" s="84"/>
+      <c r="E23" s="84"/>
+      <c r="F23" s="127"/>
+      <c r="G23" s="128"/>
+    </row>
+    <row r="24" s="1" customFormat="1" ht="33.95" customHeight="1" spans="1:7">
+      <c r="A24" s="82">
+        <v>2</v>
+      </c>
+      <c r="B24" s="85" t="s">
         <v>24</v>
       </c>
-      <c r="G22" s="127">
-        <f>G21</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" s="1" customFormat="1" ht="32.45" customHeight="1" spans="1:7">
-      <c r="A23" s="83"/>
-      <c r="B23" s="84" t="s">
+      <c r="C24" s="86"/>
+      <c r="D24" s="87"/>
+      <c r="E24" s="129"/>
+      <c r="F24" s="129"/>
+      <c r="G24" s="129"/>
+    </row>
+    <row r="25" s="1" customFormat="1" ht="18" customHeight="1" spans="1:7">
+      <c r="A25" s="88" t="s">
         <v>25</v>
       </c>
-      <c r="C23" s="85"/>
-      <c r="D23" s="85"/>
-      <c r="E23" s="85"/>
-      <c r="F23" s="128"/>
-      <c r="G23" s="129"/>
-    </row>
-    <row r="24" s="1" customFormat="1" ht="33.95" customHeight="1" spans="1:7">
-      <c r="A24" s="83">
-        <v>2</v>
-      </c>
-      <c r="B24" s="86" t="s">
+      <c r="B25" s="89" t="s">
         <v>26</v>
       </c>
-      <c r="C24" s="87"/>
-      <c r="D24" s="88" t="s">
+      <c r="C25" s="90"/>
+      <c r="D25" s="91"/>
+      <c r="E25" s="130"/>
+      <c r="F25" s="130"/>
+      <c r="G25" s="130"/>
+    </row>
+    <row r="26" s="1" customFormat="1" ht="23.1" customHeight="1" spans="1:7">
+      <c r="A26" s="74">
+        <v>3.2</v>
+      </c>
+      <c r="B26" s="92" t="s">
         <v>27</v>
       </c>
-      <c r="E24" s="130"/>
-      <c r="F24" s="130"/>
-      <c r="G24" s="130"/>
-    </row>
-    <row r="25" s="1" customFormat="1" ht="18" customHeight="1" spans="1:7">
-      <c r="A25" s="89" t="s">
+      <c r="C26" s="90"/>
+      <c r="D26" s="93"/>
+      <c r="E26" s="130"/>
+      <c r="F26" s="130"/>
+      <c r="G26" s="130"/>
+    </row>
+    <row r="27" s="1" customFormat="1" ht="56" customHeight="1" spans="1:7">
+      <c r="A27" s="94">
+        <v>3.3</v>
+      </c>
+      <c r="B27" s="95" t="s">
         <v>28</v>
       </c>
-      <c r="B25" s="90" t="s">
+      <c r="C27" s="96"/>
+      <c r="D27" s="71" t="s">
         <v>29</v>
       </c>
-      <c r="C25" s="91"/>
-      <c r="D25" s="92" t="s">
+      <c r="E27" s="71"/>
+      <c r="F27" s="71"/>
+      <c r="G27" s="71"/>
+    </row>
+    <row r="28" s="1" customFormat="1" ht="23.1" customHeight="1" spans="1:7">
+      <c r="A28" s="94">
+        <v>3.4</v>
+      </c>
+      <c r="B28" s="92" t="s">
         <v>30</v>
       </c>
-      <c r="E25" s="131"/>
-      <c r="F25" s="131"/>
-      <c r="G25" s="131"/>
-    </row>
-    <row r="26" s="1" customFormat="1" ht="23.1" customHeight="1" spans="1:7">
-      <c r="A26" s="75">
-        <v>3.2</v>
-      </c>
-      <c r="B26" s="93" t="s">
+      <c r="C28" s="90"/>
+      <c r="D28" s="91" t="s">
         <v>31</v>
       </c>
-      <c r="C26" s="91"/>
-      <c r="D26" s="94" t="s">
+      <c r="E28" s="130"/>
+      <c r="F28" s="130"/>
+      <c r="G28" s="130"/>
+    </row>
+    <row r="29" s="1" customFormat="1" ht="23.1" customHeight="1" spans="1:7">
+      <c r="A29" s="94">
+        <v>3.5</v>
+      </c>
+      <c r="B29" s="92" t="s">
         <v>32</v>
       </c>
-      <c r="E26" s="131"/>
-      <c r="F26" s="131"/>
-      <c r="G26" s="131"/>
-    </row>
-    <row r="27" s="1" customFormat="1" ht="56" customHeight="1" spans="1:7">
-      <c r="A27" s="95">
-        <v>3.3</v>
-      </c>
-      <c r="B27" s="96" t="s">
+      <c r="C29" s="90"/>
+      <c r="D29" s="91" t="s">
+        <v>31</v>
+      </c>
+      <c r="E29" s="130"/>
+      <c r="F29" s="130"/>
+      <c r="G29" s="130"/>
+    </row>
+    <row r="30" s="1" customFormat="1" ht="20" customHeight="1" spans="1:7">
+      <c r="A30" s="97">
+        <v>4</v>
+      </c>
+      <c r="B30" s="98" t="s">
         <v>33</v>
       </c>
-      <c r="C27" s="97"/>
-      <c r="D27" s="72" t="s">
+      <c r="C30" s="99"/>
+      <c r="D30" s="100"/>
+      <c r="E30" s="100"/>
+      <c r="F30" s="100"/>
+      <c r="G30" s="100"/>
+    </row>
+    <row r="31" s="1" customFormat="1" ht="18" customHeight="1" spans="1:7">
+      <c r="A31" s="88" t="s">
         <v>34</v>
       </c>
-      <c r="E27" s="72"/>
-      <c r="F27" s="72"/>
-      <c r="G27" s="72"/>
-    </row>
-    <row r="28" s="1" customFormat="1" ht="23.1" customHeight="1" spans="1:7">
-      <c r="A28" s="95">
-        <v>3.4</v>
-      </c>
-      <c r="B28" s="93" t="s">
+      <c r="B31" s="101" t="s">
         <v>35</v>
       </c>
-      <c r="C28" s="91"/>
-      <c r="D28" s="92" t="s">
+      <c r="C31" s="90"/>
+      <c r="D31" s="90"/>
+      <c r="E31" s="90"/>
+      <c r="F31" s="90"/>
+      <c r="G31" s="90"/>
+    </row>
+    <row r="32" s="1" customFormat="1" ht="41" customHeight="1" spans="1:7">
+      <c r="A32" s="97"/>
+      <c r="B32" s="102" t="s">
         <v>36</v>
       </c>
-      <c r="E28" s="131"/>
-      <c r="F28" s="131"/>
-      <c r="G28" s="131"/>
-    </row>
-    <row r="29" s="1" customFormat="1" ht="23.1" customHeight="1" spans="1:7">
-      <c r="A29" s="95">
-        <v>3.5</v>
-      </c>
-      <c r="B29" s="93" t="s">
+      <c r="C32" s="71"/>
+      <c r="D32" s="71"/>
+      <c r="E32" s="71"/>
+      <c r="F32" s="71"/>
+      <c r="G32" s="71"/>
+    </row>
+    <row r="33" s="1" customFormat="1" ht="18" customHeight="1" spans="1:7">
+      <c r="A33" s="88" t="s">
         <v>37</v>
       </c>
-      <c r="C29" s="91"/>
-      <c r="D29" s="92" t="s">
-        <v>36</v>
-      </c>
-      <c r="E29" s="131"/>
-      <c r="F29" s="131"/>
-      <c r="G29" s="131"/>
-    </row>
-    <row r="30" s="1" customFormat="1" ht="20" customHeight="1" spans="1:7">
-      <c r="A30" s="98">
-        <v>4</v>
-      </c>
-      <c r="B30" s="99" t="s">
+      <c r="B33" s="101" t="s">
         <v>38</v>
       </c>
-      <c r="C30" s="100"/>
-      <c r="D30" s="101"/>
-      <c r="E30" s="101"/>
-      <c r="F30" s="101"/>
-      <c r="G30" s="101"/>
-    </row>
-    <row r="31" s="1" customFormat="1" ht="18" customHeight="1" spans="1:7">
-      <c r="A31" s="89" t="s">
+      <c r="C33" s="90"/>
+      <c r="D33" s="90"/>
+      <c r="E33" s="90"/>
+      <c r="F33" s="90"/>
+      <c r="G33" s="90"/>
+    </row>
+    <row r="34" s="1" customFormat="1" ht="71" customHeight="1" spans="1:7">
+      <c r="A34" s="74"/>
+      <c r="B34" s="103" t="s">
         <v>39</v>
       </c>
-      <c r="B31" s="102" t="s">
+      <c r="C34" s="99"/>
+      <c r="D34" s="99"/>
+      <c r="E34" s="99"/>
+      <c r="F34" s="99"/>
+      <c r="G34" s="99"/>
+    </row>
+    <row r="35" s="1" customFormat="1" ht="18" customHeight="1" spans="1:7">
+      <c r="A35" s="88" t="s">
         <v>40</v>
       </c>
-      <c r="C31" s="91"/>
-      <c r="D31" s="91"/>
-      <c r="E31" s="91"/>
-      <c r="F31" s="91"/>
-      <c r="G31" s="91"/>
-    </row>
-    <row r="32" s="1" customFormat="1" ht="41" customHeight="1" spans="1:7">
-      <c r="A32" s="98"/>
-      <c r="B32" s="103" t="s">
+      <c r="B35" s="89" t="s">
         <v>41</v>
       </c>
-      <c r="C32" s="72"/>
-      <c r="D32" s="72"/>
-      <c r="E32" s="72"/>
-      <c r="F32" s="72"/>
-      <c r="G32" s="72"/>
-    </row>
-    <row r="33" s="1" customFormat="1" ht="18" customHeight="1" spans="1:7">
-      <c r="A33" s="89" t="s">
+      <c r="C35" s="90"/>
+      <c r="D35" s="90"/>
+      <c r="E35" s="90"/>
+      <c r="F35" s="90"/>
+      <c r="G35" s="90"/>
+    </row>
+    <row r="36" s="1" customFormat="1" ht="231" customHeight="1" spans="1:7">
+      <c r="A36" s="104"/>
+      <c r="B36" s="99" t="s">
         <v>42</v>
       </c>
-      <c r="B33" s="102" t="s">
+      <c r="C36" s="99"/>
+      <c r="D36" s="99"/>
+      <c r="E36" s="99"/>
+      <c r="F36" s="99"/>
+      <c r="G36" s="99"/>
+    </row>
+    <row r="37" s="1" customFormat="1" ht="153" customHeight="1" spans="1:7">
+      <c r="A37" s="105"/>
+      <c r="B37" s="96" t="s">
         <v>43</v>
       </c>
-      <c r="C33" s="91"/>
-      <c r="D33" s="91"/>
-      <c r="E33" s="91"/>
-      <c r="F33" s="91"/>
-      <c r="G33" s="91"/>
-    </row>
-    <row r="34" s="1" customFormat="1" ht="71" customHeight="1" spans="1:7">
-      <c r="A34" s="75"/>
-      <c r="B34" s="104" t="s">
+      <c r="C37" s="71"/>
+      <c r="D37" s="71"/>
+      <c r="E37" s="71"/>
+      <c r="F37" s="71"/>
+      <c r="G37" s="71"/>
+    </row>
+    <row r="38" s="1" customFormat="1" ht="18" customHeight="1" spans="1:7">
+      <c r="A38" s="88" t="s">
         <v>44</v>
       </c>
-      <c r="C34" s="100"/>
-      <c r="D34" s="100"/>
-      <c r="E34" s="100"/>
-      <c r="F34" s="100"/>
-      <c r="G34" s="100"/>
-    </row>
-    <row r="35" s="1" customFormat="1" ht="18" customHeight="1" spans="1:7">
-      <c r="A35" s="89" t="s">
+      <c r="B38" s="89" t="s">
         <v>45</v>
       </c>
-      <c r="B35" s="90" t="s">
+      <c r="C38" s="90"/>
+      <c r="D38" s="90"/>
+      <c r="E38" s="90"/>
+      <c r="F38" s="90"/>
+      <c r="G38" s="90"/>
+    </row>
+    <row r="39" s="1" customFormat="1" ht="194" customHeight="1" spans="1:7">
+      <c r="A39" s="74"/>
+      <c r="B39" s="73" t="s">
         <v>46</v>
       </c>
-      <c r="C35" s="91"/>
-      <c r="D35" s="91"/>
-      <c r="E35" s="91"/>
-      <c r="F35" s="91"/>
-      <c r="G35" s="91"/>
-    </row>
-    <row r="36" s="1" customFormat="1" ht="231" customHeight="1" spans="1:7">
-      <c r="A36" s="105"/>
-      <c r="B36" s="100" t="s">
+      <c r="C39" s="96"/>
+      <c r="D39" s="96"/>
+      <c r="E39" s="96"/>
+      <c r="F39" s="96"/>
+      <c r="G39" s="96"/>
+    </row>
+    <row r="40" s="1" customFormat="1" ht="18" customHeight="1" spans="1:7">
+      <c r="A40" s="88" t="s">
         <v>47</v>
       </c>
-      <c r="C36" s="100"/>
-      <c r="D36" s="100"/>
-      <c r="E36" s="100"/>
-      <c r="F36" s="100"/>
-      <c r="G36" s="100"/>
-    </row>
-    <row r="37" s="1" customFormat="1" ht="153" customHeight="1" spans="1:7">
-      <c r="A37" s="106"/>
-      <c r="B37" s="97" t="s">
+      <c r="B40" s="89" t="s">
         <v>48</v>
       </c>
-      <c r="C37" s="72"/>
-      <c r="D37" s="72"/>
-      <c r="E37" s="72"/>
-      <c r="F37" s="72"/>
-      <c r="G37" s="72"/>
-    </row>
-    <row r="38" s="1" customFormat="1" ht="18" customHeight="1" spans="1:7">
-      <c r="A38" s="89" t="s">
+      <c r="C40" s="90"/>
+      <c r="D40" s="90"/>
+      <c r="E40" s="90"/>
+      <c r="F40" s="90"/>
+      <c r="G40" s="90"/>
+    </row>
+    <row r="41" s="1" customFormat="1" ht="34" customHeight="1" spans="1:7">
+      <c r="A41" s="97"/>
+      <c r="B41" s="96" t="s">
         <v>49</v>
       </c>
-      <c r="B38" s="90" t="s">
+      <c r="C41" s="96"/>
+      <c r="D41" s="96"/>
+      <c r="E41" s="96"/>
+      <c r="F41" s="96"/>
+      <c r="G41" s="96"/>
+    </row>
+    <row r="42" s="1" customFormat="1" ht="112" customHeight="1" spans="1:7">
+      <c r="A42" s="97"/>
+      <c r="B42" s="96" t="s">
         <v>50</v>
       </c>
-      <c r="C38" s="91"/>
-      <c r="D38" s="91"/>
-      <c r="E38" s="91"/>
-      <c r="F38" s="91"/>
-      <c r="G38" s="91"/>
-    </row>
-    <row r="39" s="1" customFormat="1" ht="194" customHeight="1" spans="1:7">
-      <c r="A39" s="75"/>
-      <c r="B39" s="74" t="s">
+      <c r="C42" s="96"/>
+      <c r="D42" s="96"/>
+      <c r="E42" s="96"/>
+      <c r="F42" s="96"/>
+      <c r="G42" s="96"/>
+    </row>
+    <row r="43" s="7" customFormat="1" ht="15" customHeight="1" spans="1:7">
+      <c r="A43" s="88" t="s">
         <v>51</v>
       </c>
-      <c r="C39" s="97"/>
-      <c r="D39" s="97"/>
-      <c r="E39" s="97"/>
-      <c r="F39" s="97"/>
-      <c r="G39" s="97"/>
-    </row>
-    <row r="40" s="1" customFormat="1" ht="18" customHeight="1" spans="1:7">
-      <c r="A40" s="89" t="s">
+      <c r="B43" s="73" t="s">
         <v>52</v>
       </c>
-      <c r="B40" s="90" t="s">
+      <c r="C43" s="71"/>
+      <c r="D43" s="71"/>
+      <c r="E43" s="71"/>
+      <c r="F43" s="71"/>
+      <c r="G43" s="71"/>
+    </row>
+    <row r="44" s="7" customFormat="1" ht="129" customHeight="1" spans="1:7">
+      <c r="A44" s="63"/>
+      <c r="B44" s="106" t="s">
         <v>53</v>
       </c>
-      <c r="C40" s="91"/>
-      <c r="D40" s="91"/>
-      <c r="E40" s="91"/>
-      <c r="F40" s="91"/>
-      <c r="G40" s="91"/>
-    </row>
-    <row r="41" s="1" customFormat="1" ht="34" customHeight="1" spans="1:7">
-      <c r="A41" s="98"/>
-      <c r="B41" s="97" t="s">
+      <c r="C44" s="107"/>
+      <c r="D44" s="107"/>
+      <c r="E44" s="107"/>
+      <c r="F44" s="107"/>
+      <c r="G44" s="107"/>
+    </row>
+    <row r="45" s="7" customFormat="1" ht="15" customHeight="1" spans="1:7">
+      <c r="A45" s="88" t="s">
         <v>54</v>
       </c>
-      <c r="C41" s="97"/>
-      <c r="D41" s="97"/>
-      <c r="E41" s="97"/>
-      <c r="F41" s="97"/>
-      <c r="G41" s="97"/>
-    </row>
-    <row r="42" s="1" customFormat="1" ht="112" customHeight="1" spans="1:7">
-      <c r="A42" s="98"/>
-      <c r="B42" s="97" t="s">
+      <c r="B45" s="102" t="s">
         <v>55</v>
       </c>
-      <c r="C42" s="97"/>
-      <c r="D42" s="97"/>
-      <c r="E42" s="97"/>
-      <c r="F42" s="97"/>
-      <c r="G42" s="97"/>
-    </row>
-    <row r="43" s="7" customFormat="1" ht="15" customHeight="1" spans="1:7">
-      <c r="A43" s="89" t="s">
+      <c r="C45" s="71"/>
+      <c r="D45" s="71"/>
+      <c r="E45" s="71"/>
+      <c r="F45" s="71"/>
+      <c r="G45" s="71"/>
+    </row>
+    <row r="46" s="7" customFormat="1" ht="18" customHeight="1" spans="1:7">
+      <c r="A46" s="104"/>
+      <c r="B46" s="108" t="s">
         <v>56</v>
       </c>
-      <c r="B43" s="74" t="s">
+      <c r="C46" s="108"/>
+      <c r="D46" s="108"/>
+      <c r="E46" s="108"/>
+      <c r="F46" s="108"/>
+      <c r="G46" s="108"/>
+    </row>
+    <row r="47" s="7" customFormat="1" ht="64.5" customHeight="1" spans="1:5">
+      <c r="A47" s="109"/>
+      <c r="B47" s="110" t="s">
         <v>57</v>
       </c>
-      <c r="C43" s="72"/>
-      <c r="D43" s="72"/>
-      <c r="E43" s="72"/>
-      <c r="F43" s="72"/>
-      <c r="G43" s="72"/>
-    </row>
-    <row r="44" s="7" customFormat="1" ht="129" customHeight="1" spans="1:7">
-      <c r="A44" s="64"/>
-      <c r="B44" s="107" t="s">
+      <c r="C47" s="111"/>
+      <c r="D47" s="111"/>
+      <c r="E47" s="131" t="s">
         <v>58</v>
       </c>
-      <c r="C44" s="108"/>
-      <c r="D44" s="108"/>
-      <c r="E44" s="108"/>
-      <c r="F44" s="108"/>
-      <c r="G44" s="108"/>
-    </row>
-    <row r="45" s="7" customFormat="1" ht="15" customHeight="1" spans="1:7">
-      <c r="A45" s="89" t="s">
-        <v>59</v>
-      </c>
-      <c r="B45" s="103" t="s">
-        <v>60</v>
-      </c>
-      <c r="C45" s="72"/>
-      <c r="D45" s="72"/>
-      <c r="E45" s="72"/>
-      <c r="F45" s="72"/>
-      <c r="G45" s="72"/>
-    </row>
-    <row r="46" s="7" customFormat="1" ht="18" customHeight="1" spans="1:7">
-      <c r="A46" s="105"/>
-      <c r="B46" s="109" t="s">
-        <v>61</v>
-      </c>
-      <c r="C46" s="109"/>
-      <c r="D46" s="109"/>
-      <c r="E46" s="109"/>
-      <c r="F46" s="109"/>
-      <c r="G46" s="109"/>
-    </row>
-    <row r="47" s="7" customFormat="1" ht="64.5" customHeight="1" spans="1:5">
-      <c r="A47" s="110"/>
-      <c r="B47" s="111" t="s">
-        <v>62</v>
-      </c>
-      <c r="C47" s="112"/>
-      <c r="D47" s="112"/>
-      <c r="E47" s="132" t="s">
-        <v>63</v>
-      </c>
     </row>
     <row r="48" s="7" customFormat="1" ht="15" customHeight="1" spans="1:7">
-      <c r="A48" s="110"/>
+      <c r="A48" s="109"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -4021,7 +3831,7 @@
       <c r="G48" s="1"/>
     </row>
     <row r="49" s="7" customFormat="1" ht="15" customHeight="1" spans="1:7">
-      <c r="A49" s="110"/>
+      <c r="A49" s="109"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -4030,7 +3840,7 @@
       <c r="G49" s="1"/>
     </row>
     <row r="50" s="7" customFormat="1" ht="15" customHeight="1" spans="1:7">
-      <c r="A50" s="110"/>
+      <c r="A50" s="109"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -4039,7 +3849,7 @@
       <c r="G50" s="1"/>
     </row>
     <row r="51" s="7" customFormat="1" ht="15" customHeight="1" spans="1:7">
-      <c r="A51" s="110"/>
+      <c r="A51" s="109"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -4110,7 +3920,6 @@
     <ignoredError sqref="A25" numberStoredAsText="1"/>
     <ignoredError sqref="G22" unlockedFormula="1"/>
   </ignoredErrors>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4121,8 +3930,8 @@
   </sheetPr>
   <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24:C24"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27:G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelCol="7"/>
@@ -4141,7 +3950,7 @@
   <sheetData>
     <row r="1" ht="49.5" customHeight="1" spans="1:8">
       <c r="A1" s="9" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
@@ -4154,7 +3963,7 @@
     <row r="2" s="1" customFormat="1" ht="53.1" customHeight="1" spans="1:8">
       <c r="A2" s="10"/>
       <c r="B2" s="11" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C2" s="12">
         <f>SC!C3</f>
@@ -4163,7 +3972,7 @@
       <c r="D2" s="12"/>
       <c r="E2" s="35"/>
       <c r="F2" s="36" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="G2" s="12">
         <f>SC!G3</f>
@@ -4174,7 +3983,7 @@
     <row r="3" s="1" customFormat="1" ht="63" customHeight="1" spans="1:7">
       <c r="A3" s="10"/>
       <c r="B3" s="11" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C3" s="12">
         <f>SC!C4</f>
@@ -4183,9 +3992,9 @@
       <c r="D3" s="12"/>
       <c r="E3" s="12"/>
       <c r="F3" s="36" t="s">
-        <v>68</v>
-      </c>
-      <c r="G3" s="38">
+        <v>63</v>
+      </c>
+      <c r="G3" s="12">
         <f>SC!G4</f>
         <v>0</v>
       </c>
@@ -4195,11 +4004,11 @@
       <c r="B4" s="11"/>
       <c r="C4" s="13"/>
       <c r="D4" s="13"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="40" t="s">
-        <v>69</v>
-      </c>
-      <c r="G4" s="37">
+      <c r="E4" s="38"/>
+      <c r="F4" s="39" t="s">
+        <v>64</v>
+      </c>
+      <c r="G4" s="12">
         <f>SC!G5</f>
         <v>0</v>
       </c>
@@ -4208,7 +4017,7 @@
     <row r="5" s="1" customFormat="1" customHeight="1" spans="1:8">
       <c r="A5" s="10"/>
       <c r="B5" s="11" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C5" s="14" t="str">
         <f>SC!C6</f>
@@ -4216,23 +4025,23 @@
       </c>
       <c r="D5" s="14"/>
       <c r="E5" s="14"/>
-      <c r="F5" s="41" t="s">
-        <v>71</v>
-      </c>
-      <c r="G5" s="42"/>
+      <c r="F5" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="G5" s="41"/>
       <c r="H5" s="37"/>
     </row>
     <row r="6" s="1" customFormat="1" ht="86.1" customHeight="1" spans="1:8">
       <c r="A6" s="10"/>
       <c r="B6" s="11" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C6" s="15">
         <f>SC!C7</f>
         <v>0</v>
       </c>
       <c r="D6" s="15"/>
-      <c r="F6" s="43" t="str">
+      <c r="F6" s="42" t="str">
         <f>SC!E7</f>
         <v>Benificiary Bank
 CHINA CITIC BANK CHONGQING BRANCH
@@ -4241,26 +4050,26 @@
 Benificiary Account: （8111214013100727547）
 Bank Address:  NO. 5, WEST STREET, JIANGBEI CITY, JIANGBEI DISTRICT, CHONGQING</v>
       </c>
-      <c r="G6" s="44"/>
-      <c r="H6" s="45"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="44"/>
     </row>
     <row r="7" s="2" customFormat="1" ht="117.95" customHeight="1" spans="1:8">
       <c r="A7" s="10"/>
       <c r="B7" s="11"/>
-      <c r="E7" s="46"/>
-      <c r="F7" s="47"/>
-      <c r="G7" s="48"/>
-      <c r="H7" s="45"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="47"/>
+      <c r="H7" s="44"/>
     </row>
     <row r="8" ht="16.5" customHeight="1" spans="3:8">
       <c r="C8" s="16"/>
       <c r="D8" s="16"/>
-      <c r="G8" s="49"/>
-      <c r="H8" s="49"/>
+      <c r="G8" s="48"/>
+      <c r="H8" s="48"/>
     </row>
     <row r="9" ht="20.25" customHeight="1" spans="1:8">
       <c r="A9" s="17" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B9" s="17"/>
       <c r="C9" s="17"/>
@@ -4275,22 +4084,22 @@
         <v>1</v>
       </c>
       <c r="B10" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="E10" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="F10" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="G10" s="49" t="s">
         <v>73</v>
-      </c>
-      <c r="C10" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="D10" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="E10" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="F10" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="G10" s="50" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="11" s="3" customFormat="1" ht="60" customHeight="1" spans="1:7">
@@ -4311,11 +4120,11 @@
         <f>SC!E11</f>
         <v>0</v>
       </c>
-      <c r="F11" s="51">
+      <c r="F11" s="50">
         <f>SC!F11</f>
         <v>0</v>
       </c>
-      <c r="G11" s="51">
+      <c r="G11" s="50">
         <f>SC!G11</f>
         <v>0</v>
       </c>
@@ -4338,11 +4147,11 @@
         <f>SC!E12</f>
         <v>0</v>
       </c>
-      <c r="F12" s="51">
+      <c r="F12" s="50">
         <f>SC!F12</f>
         <v>0</v>
       </c>
-      <c r="G12" s="51">
+      <c r="G12" s="50">
         <f>SC!G12</f>
         <v>0</v>
       </c>
@@ -4365,11 +4174,11 @@
         <f>SC!E13</f>
         <v>0</v>
       </c>
-      <c r="F13" s="51">
+      <c r="F13" s="50">
         <f>SC!F13</f>
         <v>0</v>
       </c>
-      <c r="G13" s="51">
+      <c r="G13" s="50">
         <f>SC!G13</f>
         <v>0</v>
       </c>
@@ -4392,11 +4201,11 @@
         <f>SC!E14</f>
         <v>0</v>
       </c>
-      <c r="F14" s="51">
+      <c r="F14" s="50">
         <f>SC!F14</f>
         <v>0</v>
       </c>
-      <c r="G14" s="51">
+      <c r="G14" s="50">
         <f>SC!G14</f>
         <v>0</v>
       </c>
@@ -4419,11 +4228,11 @@
         <f>SC!E15</f>
         <v>0</v>
       </c>
-      <c r="F15" s="51">
+      <c r="F15" s="50">
         <f>SC!F15</f>
         <v>0</v>
       </c>
-      <c r="G15" s="51">
+      <c r="G15" s="50">
         <f>SC!G15</f>
         <v>0</v>
       </c>
@@ -4446,11 +4255,11 @@
         <f>SC!E16</f>
         <v>0</v>
       </c>
-      <c r="F16" s="51">
+      <c r="F16" s="50">
         <f>SC!F16</f>
         <v>0</v>
       </c>
-      <c r="G16" s="51">
+      <c r="G16" s="50">
         <f>SC!G16</f>
         <v>0</v>
       </c>
@@ -4473,11 +4282,11 @@
         <f>SC!E16</f>
         <v>0</v>
       </c>
-      <c r="F17" s="51">
+      <c r="F17" s="50">
         <f>SC!F16</f>
         <v>0</v>
       </c>
-      <c r="G17" s="51">
+      <c r="G17" s="50">
         <f>SC!G16</f>
         <v>0</v>
       </c>
@@ -4500,11 +4309,11 @@
         <f>SC!E17</f>
         <v>0</v>
       </c>
-      <c r="F18" s="51">
+      <c r="F18" s="50">
         <f>SC!F17</f>
         <v>0</v>
       </c>
-      <c r="G18" s="51">
+      <c r="G18" s="50">
         <f>SC!G17</f>
         <v>0</v>
       </c>
@@ -4527,11 +4336,11 @@
         <f>SC!E18</f>
         <v>0</v>
       </c>
-      <c r="F19" s="51">
+      <c r="F19" s="50">
         <f>SC!F18</f>
         <v>0</v>
       </c>
-      <c r="G19" s="51">
+      <c r="G19" s="50">
         <f>SC!G18</f>
         <v>0</v>
       </c>
@@ -4554,11 +4363,11 @@
         <f>SC!E19</f>
         <v>0</v>
       </c>
-      <c r="F20" s="51">
+      <c r="F20" s="50">
         <f>SC!F19</f>
         <v>0</v>
       </c>
-      <c r="G20" s="51">
+      <c r="G20" s="50">
         <f>SC!G19</f>
         <v>0</v>
       </c>
@@ -4566,31 +4375,31 @@
     <row r="21" s="4" customFormat="1" ht="30" customHeight="1" spans="1:7">
       <c r="A21" s="18"/>
       <c r="B21" s="22" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C21" s="23"/>
       <c r="D21" s="23"/>
-      <c r="E21" s="52"/>
-      <c r="F21" s="53" t="str">
+      <c r="E21" s="51"/>
+      <c r="F21" s="52">
         <f>SC!F22</f>
-        <v>FOB Ningbo</v>
-      </c>
-      <c r="G21" s="54">
+        <v>0</v>
+      </c>
+      <c r="G21" s="53">
         <f>SC!G22</f>
         <v>0</v>
       </c>
     </row>
     <row r="22" s="4" customFormat="1" ht="30" customHeight="1" spans="1:7">
       <c r="A22" s="18"/>
-      <c r="B22" s="24" t="str">
+      <c r="B22" s="24">
         <f>SC!B23</f>
-        <v>TOTAL：SAY US DOLLARS ONE HUNDRED AND TWENTY-SEVEN THOUSAND TWO HUNDRED ONLY</v>
+        <v>0</v>
       </c>
       <c r="C22" s="25"/>
       <c r="D22" s="25"/>
       <c r="E22" s="25"/>
       <c r="F22" s="25"/>
-      <c r="G22" s="55"/>
+      <c r="G22" s="54"/>
     </row>
     <row r="23" s="5" customFormat="1" ht="36" customHeight="1" spans="1:7">
       <c r="A23" s="26">
@@ -4601,9 +4410,9 @@
         <v>支付条款 TERMS OF PAYMENT</v>
       </c>
       <c r="C23" s="27"/>
-      <c r="D23" s="27" t="str">
+      <c r="D23" s="27">
         <f>SC!D24</f>
-        <v>付全款提车（100% Payment by T/T）</v>
+        <v>0</v>
       </c>
       <c r="E23" s="27"/>
       <c r="F23" s="27"/>
@@ -4618,14 +4427,14 @@
         <v>运输路线 TRANSPORT ROUTE</v>
       </c>
       <c r="C24" s="29"/>
-      <c r="D24" s="27" t="str">
+      <c r="D24" s="27">
         <f>SC!D25</f>
-        <v>宁波交车 Ningbo Delivery</v>
+        <v>0</v>
       </c>
       <c r="E24" s="27"/>
       <c r="F24" s="27"/>
       <c r="G24" s="27"/>
-      <c r="H24" s="56"/>
+      <c r="H24" s="55"/>
     </row>
     <row r="25" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:8">
       <c r="A25" s="28">
@@ -4636,49 +4445,49 @@
         <v>运输方式 MODE OF SHIPMENT</v>
       </c>
       <c r="C25" s="29"/>
-      <c r="D25" s="27" t="str">
+      <c r="D25" s="27">
         <f>SC!D26</f>
-        <v>海运 Sea</v>
+        <v>0</v>
       </c>
       <c r="E25" s="27"/>
       <c r="F25" s="27"/>
       <c r="G25" s="27"/>
-      <c r="H25" s="57"/>
+      <c r="H25" s="56"/>
     </row>
     <row r="26" s="1" customFormat="1" ht="38.1" customHeight="1" spans="1:8">
       <c r="A26" s="30" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B26" s="31" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C26" s="31"/>
       <c r="D26" s="31"/>
       <c r="E26" s="31"/>
       <c r="F26" s="31"/>
       <c r="G26" s="31"/>
-      <c r="H26" s="57"/>
+      <c r="H26" s="56"/>
     </row>
     <row r="27" ht="20.1" customHeight="1" spans="1:8">
       <c r="A27" s="32" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B27" s="33" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C27" s="33"/>
       <c r="D27" s="33"/>
       <c r="E27" s="33"/>
       <c r="F27" s="33"/>
       <c r="G27" s="33"/>
-      <c r="H27" s="58"/>
+      <c r="H27" s="57"/>
     </row>
     <row r="28" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:8">
       <c r="A28" s="32" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B28" s="33" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C28" s="33"/>
       <c r="D28" s="33"/>
@@ -4692,7 +4501,7 @@
         <v>4</v>
       </c>
       <c r="B29" s="31" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C29" s="31"/>
       <c r="D29" s="31"/>

--- a/api/api/template.xlsx
+++ b/api/api/template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="15160"/>
+    <workbookView windowHeight="15160" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="SC" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="84">
   <si>
     <t>SMAI CO., LTD</t>
   </si>
@@ -46,7 +46,7 @@
       <rPr>
         <b/>
         <sz val="11"/>
-        <rFont val="Times New Roman Regular"/>
+        <rFont val="Times New Roman Bold"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">  </t>
@@ -64,7 +64,7 @@
       <rPr>
         <b/>
         <sz val="11"/>
-        <rFont val="Times New Roman Regular"/>
+        <rFont val="Times New Roman Bold"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">  </t>
@@ -82,7 +82,7 @@
       <rPr>
         <b/>
         <sz val="11"/>
-        <rFont val="Times New Roman Regular"/>
+        <rFont val="Times New Roman Bold"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">  </t>
@@ -99,7 +99,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="Times New Roman Regular"/>
+        <rFont val="Times New Roman Bold"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> 
@@ -109,7 +109,7 @@
       <rPr>
         <b/>
         <sz val="11"/>
-        <rFont val="Times New Roman Regular"/>
+        <rFont val="Times New Roman Bold"/>
         <charset val="134"/>
       </rPr>
       <t>SALES   CONTRACT</t>
@@ -117,22 +117,36 @@
   </si>
   <si>
     <r>
+      <t>买方</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Times New Roman Bold"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> Buyer</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <rPr>
         <b/>
         <sz val="11"/>
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>买方</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Times New Roman Regular"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> Buyer</t>
+      <t>编号</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Times New Roman Bold"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> No.</t>
     </r>
   </si>
   <si>
@@ -143,16 +157,36 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>编号</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Times New Roman Regular"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> No.</t>
+      <t>地址</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Times New Roman Bold"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> Add</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>日期</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Times New Roman Bold"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> Date</t>
     </r>
   </si>
   <si>
@@ -163,36 +197,33 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>地址</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Times New Roman Regular"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> Add</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="宋体-简"/>
-        <charset val="134"/>
-      </rPr>
-      <t>日期</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Times New Roman Regular"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> Date</t>
+      <t>电话</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Times New Roman Bold"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> Tel</t>
+    </r>
+  </si>
+  <si>
+    <t>/</t>
+  </si>
+  <si>
+    <r>
+      <t>地点</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Times New Roman Bold"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> Signing Location</t>
     </r>
   </si>
   <si>
@@ -203,56 +234,13 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>电话</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Times New Roman Regular"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> Tel</t>
-    </r>
-  </si>
-  <si>
-    <t>/</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>地点</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Times New Roman Regular"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> Signed At</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
       <t>卖方</t>
     </r>
     <r>
       <rPr>
         <b/>
         <sz val="11"/>
-        <rFont val="Times New Roman Regular"/>
+        <rFont val="Times New Roman Bold"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> Seller</t>
@@ -263,22 +251,16 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="宋体-简"/>
-        <charset val="134"/>
-      </rPr>
       <t>开户行</t>
     </r>
     <r>
       <rPr>
         <b/>
         <sz val="11"/>
-        <rFont val="Times New Roman Regular"/>
-        <charset val="134"/>
-      </rPr>
-      <t>BANK</t>
+        <rFont val="Times New Roman Bold"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> Bank</t>
     </r>
   </si>
   <si>
@@ -287,11 +269,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman Regular"/>
-        <charset val="134"/>
-      </rPr>
       <t xml:space="preserve">Benificiary Bank
 CHINA CITIC BANK CHONGQING BRANCH
 Swift Code:  CIBKCNBJ400
@@ -309,7 +286,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="Times New Roman Regular"/>
+        <rFont val="Times New Roman"/>
         <charset val="134"/>
       </rPr>
       <t>8111214013100727547</t>
@@ -325,7 +302,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="Times New Roman Regular"/>
+        <rFont val="Times New Roman"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
@@ -334,38 +311,41 @@
   </si>
   <si>
     <r>
-      <rPr>
+      <t>买卖双方同意按下列条款由卖方出售，买方购进下列货物：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman Bold"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>The sellers agrees to sell and the buyer agrees to buy the undermentioned goods on the terms and conditions stated below:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
         <sz val="11"/>
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>买卖双方同意按下列条款由卖方出售，买方购进下列货物：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman Regular"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-The sellers agrees to sell and the buyer agrees to buy the undermentioned goods on the terms and conditions stated below:</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
       <t>型号</t>
     </r>
     <r>
       <rPr>
         <b/>
         <sz val="11"/>
-        <rFont val="Times New Roman Regular"/>
+        <rFont val="Times New Roman Bold"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
@@ -386,7 +366,7 @@
       <rPr>
         <b/>
         <sz val="11"/>
-        <rFont val="Times New Roman Regular"/>
+        <rFont val="Times New Roman Bold"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
@@ -407,7 +387,7 @@
       <rPr>
         <b/>
         <sz val="11"/>
-        <rFont val="Times New Roman Regular"/>
+        <rFont val="Times New Roman Bold"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
@@ -428,7 +408,7 @@
       <rPr>
         <b/>
         <sz val="11"/>
-        <rFont val="Times New Roman Regular"/>
+        <rFont val="Times New Roman Bold"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
@@ -449,7 +429,7 @@
       <rPr>
         <b/>
         <sz val="11"/>
-        <rFont val="Times New Roman Regular"/>
+        <rFont val="Times New Roman Bold"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
@@ -471,7 +451,7 @@
       <rPr>
         <b/>
         <sz val="11"/>
-        <rFont val="Times New Roman Regular"/>
+        <rFont val="Times New Roman Bold"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
@@ -495,7 +475,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FF000000"/>
-        <rFont val="Times New Roman Regular"/>
+        <rFont val="Times New Roman Bold"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
@@ -521,7 +501,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FF000000"/>
-        <rFont val="Times New Roman Regular"/>
+        <rFont val="Times New Roman Bold"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
@@ -542,7 +522,7 @@
       <rPr>
         <b/>
         <sz val="11"/>
-        <rFont val="Times New Roman Regular"/>
+        <rFont val="Times New Roman Bold"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> TERMS OF PAYMENT</t>
@@ -565,7 +545,7 @@
       <rPr>
         <b/>
         <sz val="11"/>
-        <rFont val="Times New Roman Regular"/>
+        <rFont val="Times New Roman Bold"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> TRANSPORT ROUTE</t>
@@ -585,7 +565,7 @@
       <rPr>
         <b/>
         <sz val="11"/>
-        <rFont val="Times New Roman Regular"/>
+        <rFont val="Times New Roman Bold"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> MODE OF SHIPMENT</t>
@@ -605,7 +585,7 @@
       <rPr>
         <b/>
         <sz val="11"/>
-        <rFont val="Times New Roman Regular"/>
+        <rFont val="Times New Roman Bold"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> TIME OF SHIPMENT</t>
@@ -616,19 +596,13 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
       <t>分批装运</t>
     </r>
     <r>
       <rPr>
         <b/>
         <sz val="11"/>
-        <rFont val="Times New Roman Regular"/>
+        <rFont val="Times New Roman Bold"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> PARTIAL SHIPMENT</t>
@@ -636,303 +610,84 @@
   </si>
   <si>
     <r>
-      <rPr>
+      <t>允许</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman Bold"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ALLOWED</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>转运</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Times New Roman Bold"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> TRANSSHIPMENT</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
         <sz val="11"/>
         <rFont val="宋体-简"/>
         <charset val="134"/>
       </rPr>
-      <t>允许</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman Regular"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> ALLOWED</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>转运</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Times New Roman Regular"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> TRANSSHIPMENT</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
+      <t>运输保险</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Times New Roman Bold"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> TRANSPORTATION INSURANCE</t>
+    </r>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <r>
+      <t>检验</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Times New Roman Bold"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> INSPECTION</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>卖方应在发货前对货物进行仔细检验，并保证货物符合本合同所规定的质量、规格和数量。</t>
+    </r>
+    <r>
+      <rPr>
         <sz val="11"/>
         <rFont val="宋体-简"/>
-        <charset val="134"/>
-      </rPr>
-      <t>运输保险</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Times New Roman Regular"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> TRANSPORTATION INSURANCE</t>
-    </r>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="宋体-简"/>
-        <charset val="134"/>
-      </rPr>
-      <t>检验</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Times New Roman Regular"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> INSPECTION</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体-简"/>
-        <charset val="134"/>
-      </rPr>
-      <t>产品技术标准及市场特殊要求</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman Regular"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-Technical standard and special market requirements of the product</t>
-    </r>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="宋体-简"/>
-        <charset val="134"/>
-      </rPr>
-      <t>产品技术标准及市场特殊要求</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Times New Roman Regular"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> TECHNICAL STANDARD AND SPECIAL MARKET REQUIREMENTS OF THE PRODUCT</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>对于本公司所指贸易产品的技术标准及市场特殊要求，双方将在本合同或合同附件中予以列明。若未列明，则按中国国家标准执行。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman Regular"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">  
-With regard to the technical standard and special market requirements of the trading product stated herein, it shall be listed and described in the contract or in the annex, signed by both parties. Otherwise the Chinese national standards (GB in short) shall be applied.</t>
-    </r>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="宋体-简"/>
-        <charset val="134"/>
-      </rPr>
-      <t>异议索赔</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Times New Roman Regular"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> DISCREPANCIES AND CLAIMS</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Times New Roman Regular"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">A. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体-简"/>
-        <charset val="134"/>
-      </rPr>
-      <t>货物到达目的港后，买方如发现货物质量</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman Regular"/>
-        <charset val="134"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体-简"/>
-        <charset val="134"/>
-      </rPr>
-      <t>数量</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman Regular"/>
-        <charset val="134"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体-简"/>
-        <charset val="134"/>
-      </rPr>
-      <t>重量与合同规定不符，除属于保险公司</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman Regular"/>
-        <charset val="134"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体-简"/>
-        <charset val="134"/>
-      </rPr>
-      <t>或承运方责任外，买方可凭双方同意的检验机构出具的检验证明向卖方提出索赔，质量不符的索赔须于货物到达目的港之日起</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman Regular"/>
-        <charset val="134"/>
-      </rPr>
-      <t>30</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体-简"/>
-        <charset val="134"/>
-      </rPr>
-      <t>天内提出，数量</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman Regular"/>
-        <charset val="134"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体-简"/>
-        <charset val="134"/>
-      </rPr>
-      <t>重量不符的索赔须于货物到达目的港之日起</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman Regular"/>
-        <charset val="134"/>
-      </rPr>
-      <t>15</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体-简"/>
-        <charset val="134"/>
-      </rPr>
-      <t>天内提出。卖方应于收到索赔通知</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman Regular"/>
-        <charset val="134"/>
-      </rPr>
-      <t>30</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体-简"/>
-        <charset val="134"/>
-      </rPr>
-      <t>天内答复买方。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman Regular"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
@@ -941,34 +696,83 @@
     <r>
       <rPr>
         <sz val="11"/>
+        <rFont val="Times New Roman Regular"/>
+        <charset val="134"/>
+      </rPr>
+      <t>The Seller shall inspect the goods carefully and guarantee that the goods conform to the quality, specifications, and quantity as stipulated in this contract before shipment.</t>
+    </r>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
         <rFont val="宋体-简"/>
         <charset val="134"/>
       </rPr>
-      <t>货物到达目的港后，买方有义务及时清理货物，并采取适当的保护和维护措施</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman Regular"/>
-        <charset val="134"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
+      <t>产品技术标准及市场特殊要求</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Times New Roman Bold"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> TECHNICAL STANDARD AND SPECIAL MARKET REQUIREMENTS OF THE PRODUCT</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>对于本公司所指贸易产品的技术标准及市场特殊要求，双方将在本合同或合同附件中予以列明。若未列明，则按中国国家标准执行。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman Bold"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">  
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>With regard to the technical standard and special market requirements of the trading product stated herein, it shall be listed and described in the contract or in the annex, signed by both parties. Otherwise the Chinese national standards (GB in short) shall be applied.</t>
+    </r>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
         <sz val="11"/>
         <rFont val="宋体-简"/>
         <charset val="134"/>
       </rPr>
-      <t>如防雨、检查电池、及时充电等</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman Regular"/>
-        <charset val="134"/>
-      </rPr>
-      <t>)</t>
+      <t>异议索赔</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Times New Roman Bold"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> DISCREPANCIES AND CLAIMS</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A. </t>
     </r>
     <r>
       <rPr>
@@ -976,13 +780,124 @@
         <rFont val="宋体-简"/>
         <charset val="134"/>
       </rPr>
-      <t>。</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Times New Roman Regular"/>
+      <t>货物到达目的港后，买方如发现货物质量</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman Bold"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>数量</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman Bold"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>重量与合同规定不符，除属于保险公司</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman Bold"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>或承运方责任外，买方可凭双方同意的检验机构出具的检验证明向卖方提出索赔，质量不符的索赔须于货物到达目的港之日起</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman Bold"/>
+        <charset val="134"/>
+      </rPr>
+      <t>30</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>天内提出，数量</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman Bold"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>重量不符的索赔须于货物到达目的港之日起</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman Bold"/>
+        <charset val="134"/>
+      </rPr>
+      <t>15</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>天内提出。卖方应于收到索赔通知</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman Bold"/>
+        <charset val="134"/>
+      </rPr>
+      <t>30</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>天内答复买方。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman Bold"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
@@ -991,7 +906,57 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="Times New Roman Regular"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>货物到达目的港后，买方有义务及时清理货物，并采取适当的保护和维护措施</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman Bold"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>如防雨、检查电池、及时充电等</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman Bold"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Times New Roman Bold"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
         <charset val="134"/>
       </rPr>
       <t>In case quality and/or Quantity/weight are found by the Buyer to be not in conformity with the contract after arrival of the goods at the port of destination, the Buyer may lodge claims with the Seller supported by survey report issued by an inspection organization agreed upon by both parties, with the exception, however, of those claims for which the insurance company and/or the carrier(s), are to be held responsible. Claims for quality discrepancies shall be filed by the Buyer within 30 days after arrival of the goods at the port of destination, while discrepancies and claims of quantity/weight shall be filed by the Buyer within 15 days after arrival of the goods at the port of destination. The Seller shall, within 30 days after receipt of the notification of the claims, send a reply to the Buyer.
@@ -1000,18 +965,12 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Times New Roman Regular"/>
-        <charset val="134"/>
-      </rPr>
       <t>B.</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="Times New Roman Regular"/>
+        <rFont val="Times New Roman Bold"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> </t>
@@ -1027,118 +986,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="Times New Roman Regular"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-The Buyer has fully confirmed the commodity in this contract conforms to local approval standards and related legal provisions where the Buyer located. The Seller shall not be deemed to breach the contract for failing to clear the customs, be punished or even confiscated due to the homologation, customs clearance, laws and market. The Buyer still undertakes all the obligations including pay up on time. In case any loss to the Seller, the Buyer is responsible for compensation. And in case any loss to the Buyer, the Buyer shall bear at its own. The loss includes but not limited to demurrage charge and administrative penalty.</t>
-    </r>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="宋体-简"/>
-        <charset val="134"/>
-      </rPr>
-      <t>不可抗力</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Times New Roman Regular"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> FORCE MAJEURE</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>由于不可抗力因素，使卖方不能履行合同或者延期履行合同，卖方无须承违约责任，但卖方必须以书面形式通知买方。如果买方提出要求，卖方应向买方提供证明不可抗力发生证据。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman Regular"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-The Seller shall not be held responsible for the delay in shipment or non-delivery of the goods due to Force Majeure causes. However, in such a case, the Seller shall inform the Buyer for the occurrence mentioned above in written form and if it is requested by the Buyer, shall also supply the Buyer with the documents attesting the existence of such a cause or causes.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体-简"/>
-        <charset val="134"/>
-      </rPr>
-      <t>若由于特殊原因如各国海关査验、有关国家政策变化、节假日闭关、自然灾害、疫情及疫情防控程序履行等情形的发生，使卖方不能履行合同或者延期履行合同，卖方无须承担违约责任，但卖方必须以书面形式通知买方。如果买方提出要求，卖方应向买方提供相关证明。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman Regular"/>
-        <charset val="134"/>
-      </rPr>
-      <t>If the seller is unable to perform the contract or delays the performance of the contract due to special reasons such as customs inspections, changes in relevant national policies, holiday closures, natural disasters, epidemics, and the implementation of epidemic prevention and control procedures, the seller shall not be liable for breach of contract, but the seller must notify the buyer in writing. If the buyer requests, the seller shall provide the buyer with relevant certificates.</t>
-    </r>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="宋体-简"/>
-        <charset val="134"/>
-      </rPr>
-      <t>生效</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Times New Roman Regular"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> VALIDITY</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Times New Roman Regular"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">A. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>本合同自签字或盖章之日起生效</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Times New Roman Regular"/>
+        <rFont val="Times New Roman Bold"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
@@ -1147,7 +995,140 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="Times New Roman Regular"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>The Buyer has fully confirmed the commodity in this contract conforms to local approval standards and related legal provisions where the Buyer located. The Seller shall not be deemed to breach the contract for failing to clear the customs, be punished or even confiscated due to the homologation, customs clearance, laws and market. The Buyer still undertakes all the obligations including pay up on time. In case any loss to the Seller, the Buyer is responsible for compensation. And in case any loss to the Buyer, the Buyer shall bear at its own. The loss includes but not limited to demurrage charge and administrative penalty.</t>
+    </r>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>不可抗力</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Times New Roman Bold"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> FORCE MAJEURE</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>由于不可抗力因素，使卖方不能履行合同或者延期履行合同，卖方无须承违约责任，但卖方必须以书面形式通知买方。如果买方提出要求，卖方应向买方提供证明不可抗力发生证据。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman Bold"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>The Seller shall not be held responsible for the delay in shipment or non-delivery of the goods due to Force Majeure causes. However, in such a case, the Seller shall inform the Buyer for the occurrence mentioned above in written form and if it is requested by the Buyer, shall also supply the Buyer with the documents attesting the existence of such a cause or causes.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman Bold"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>若由于特殊原因如各国海关査验、有关国家政策变化、节假日闭关、自然灾害、疫情及疫情防控程序履行等情形的发生，使卖方不能履行合同或者延期履行合同，卖方无须承担违约责任，但卖方必须以书面形式通知买方。如果买方提出要求，卖方应向买方提供相关证明。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>If the seller is unable to perform the contract or delays the performance of the contract due to special reasons such as customs inspections, changes in relevant national policies, holiday closures, natural disasters, epidemics, and the implementation of epidemic prevention and control procedures, the seller shall not be liable for breach of contract, but the seller must notify the buyer in writing. If the buyer requests, the seller shall provide the buyer with relevant certificates.</t>
+    </r>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>生效</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Times New Roman Bold"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> VALIDITY</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>本合同自签字或盖章之日起生效</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Times New Roman Bold"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
         <charset val="134"/>
       </rPr>
       <t>This contract comes into effect from the signing or stamp date.</t>
@@ -1155,12 +1136,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Times New Roman Regular"/>
-        <charset val="134"/>
-      </rPr>
       <t>B.</t>
     </r>
     <r>
@@ -1174,11 +1149,19 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="Times New Roman Regular"/>
+        <rFont val="Times New Roman Bold"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> 
-Since this contract is signed by both parties, Buyer guarantees to pay in time unconditionally and in no case, Buyer could not cancel the orders or change any items and technical specifications. Buyer should not refuse to pay the goods by any reason of quality and market problems. Otherwise, Buyer will be regarded as the breach of agreement for payment and will bear all the losses stipulated in such an agreement.</t>
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Since this contract is signed by both parties, Buyer guarantees to pay in time unconditionally and in no case, Buyer could not cancel the orders or change any items and technical specifications. Buyer should not refuse to pay the goods by any reason of quality and market problems. Otherwise, Buyer will be regarded as the breach of agreement for payment and will bear all the losses stipulated in such an agreement.</t>
     </r>
   </si>
   <si>
@@ -1197,7 +1180,7 @@
       <rPr>
         <b/>
         <sz val="11"/>
-        <rFont val="Times New Roman Regular"/>
+        <rFont val="Times New Roman Bold"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> ARBITRATION</t>
@@ -1205,34 +1188,37 @@
   </si>
   <si>
     <r>
+      <t>因执行本合同所发生的与本合同有关的一切争议，应通过双方友好协商，予以解决。如果协商不能解决问题，则应提交中国国际经济贸易仲裁委员会西南分会，仲裁时适用中国法律。该仲裁委员会决定是终局的，对双方均有约束力。有关仲裁费用，除法律另有规定外，由败诉方承担。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman Bold"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>All disputes arising from the performance of this Contract shall be settled through friendly negotiation. In case no settlement can be reached, the dispute shall then be submitted to China International Economic and Trade Arbitration Commission Southwest Sub-Commission for arbitration in accordance with its rules in effect at the time of applying for arbitration</t>
+    </r>
+    <r>
       <rPr>
         <sz val="11"/>
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>因执行本合同所发生的与本合同有关的一切争议，应通过双方友好协商，予以解决。如果协商不能解决问题，则应提交中国国际经济贸易仲裁委员会西南分会，仲裁时适用中国法律。该仲裁委员会决定是终局的，对双方均有约束力。有关仲裁费用，除法律另有规定外，由败诉方承担。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman Regular"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-All disputes arising from the performance of this Contract shall be settled through friendly negotiation. In case no settlement can be reached, the dispute shall then be submitted to China International Economic and Trade Arbitration Commission Southwest Sub-Commission for arbitration in accordance with its rules in effect at the time of applying for arbitration</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
       <t>，</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="Times New Roman Regular"/>
+        <rFont val="Times New Roman"/>
         <charset val="134"/>
       </rPr>
       <t>during which Chinese laws shall governs. The award of the arbitration shall be final and binding upon both parties. The official languages of arbitration shall be Chinese.</t>
@@ -1253,7 +1239,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="Times New Roman Regular"/>
+        <rFont val="Times New Roman Bold"/>
         <charset val="134"/>
       </rPr>
       <t>,</t>
@@ -1272,52 +1258,30 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
       <t>买方签字</t>
     </r>
     <r>
       <rPr>
         <b/>
         <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">Signature of the Buyer: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">                                                </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
+        <rFont val="Times New Roman Bold"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> Signature of the Buyer:</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <t>卖方签字</t>
     </r>
     <r>
       <rPr>
         <b/>
         <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Signature of the Seller: ___________________</t>
+        <rFont val="Times New Roman Bold"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> Signature of the Seller: ___________________</t>
     </r>
   </si>
   <si>
@@ -1327,91 +1291,34 @@
     <t>Buyer</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>编号</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>No</t>
-    </r>
+    <t>No</t>
   </si>
   <si>
     <t>Add</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>日期</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Date</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体-简"/>
-        <charset val="134"/>
-      </rPr>
-      <t>地点</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Signed at</t>
-    </r>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Tel</t>
+  </si>
+  <si>
+    <t>Signing Location</t>
   </si>
   <si>
     <t>Seller</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>开户行</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>BANK</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">   The sellers agrees to sell and the buyer agrees to buy the undermentioned goods on the terms and conditions stated below:</t>
+    <t>Bank</t>
+  </si>
+  <si>
+    <t>The sellers agrees to sell and the buyer agrees to buy the undermentioned goods on the terms and conditions stated below:</t>
   </si>
   <si>
     <t>Model</t>
   </si>
   <si>
-    <t>Description&amp;Specification of Goods</t>
+    <t>Description &amp; Specification of Goods</t>
   </si>
   <si>
     <t>Color</t>
@@ -1434,6 +1341,15 @@
     <t xml:space="preserve">3.3 </t>
   </si>
   <si>
+    <t>装运期限 TIME OF SHIPMENT</t>
+  </si>
+  <si>
+    <t>3.4</t>
+  </si>
+  <si>
+    <r>
+      <t>分批装运</t>
+    </r>
     <r>
       <rPr>
         <b/>
@@ -1441,21 +1357,39 @@
         <rFont val="Times New Roman"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">Time of shipment: </t>
-    </r>
-    <r>
-      <rPr>
+      <t xml:space="preserve"> PARTIAL SHIPMENT</t>
+    </r>
+  </si>
+  <si>
+    <t>3.5</t>
+  </si>
+  <si>
+    <r>
+      <t>转运</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="11"/>
         <rFont val="Times New Roman"/>
         <charset val="134"/>
       </rPr>
-      <t>THE FREIGHT FORWARDER INFORMATION IS PROVIDED BY THE BUYER, AND THE LATEST SHIPMENT DATE IS TWO MONTHS AFTER THE COMPLETION OF DELIVERY</t>
-    </r>
-  </si>
-  <si>
-    <t>3.4</t>
-  </si>
-  <si>
+      <t xml:space="preserve"> TRANSSHIPMENT</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>PI</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>有效期</t>
+    </r>
     <r>
       <rPr>
         <b/>
@@ -1463,57 +1397,11 @@
         <rFont val="Times New Roman"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve"> Partial shipment: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ALLOWED</t>
-    </r>
-  </si>
-  <si>
-    <t>3.5</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> Transshipment</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>: ALLOWED</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">PI Validity: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>3DAYS</t>
-    </r>
+      <t xml:space="preserve"> PI Validity</t>
+    </r>
+  </si>
+  <si>
+    <t>3 DAYS</t>
   </si>
 </sst>
 </file>
@@ -1582,13 +1470,14 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="宋体"/>
+      <b/>
+      <sz val="11"/>
+      <name val="宋体-简"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
-      <name val="宋体-简"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1605,45 +1494,37 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="Times New Roman Regular"/>
+      <name val="Times New Roman Bold"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Times New Roman Bold"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Times New Roman Bold"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <name val="Times New Roman Regular"/>
+      <name val="Times New Roman Bold"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Times New Roman Regular"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="宋体-简"/>
+      <name val="Times New Roman Bold"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="宋体-简"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman Regular"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="宋体-简"/>
+      <name val="Times New Roman Bold"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1653,7 +1534,7 @@
     </font>
     <font>
       <sz val="18"/>
-      <name val="Times New Roman"/>
+      <name val="Times New Roman Bold"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1809,9 +1690,14 @@
     </font>
     <font>
       <b/>
-      <u/>
       <sz val="11"/>
-      <name val="Times New Roman"/>
+      <color rgb="FF000000"/>
+      <name val="宋体-简"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman Regular"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -2009,19 +1895,10 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="22">
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -2091,11 +1968,20 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="8"/>
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -2103,10 +1989,10 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="8"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="8"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -2115,31 +2001,7 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
+      <right/>
       <top/>
       <bottom style="thin">
         <color auto="1"/>
@@ -2147,9 +2009,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -2183,35 +2052,6 @@
       <bottom style="thin">
         <color indexed="8"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -2317,152 +2157,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="3" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="4" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="5" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="4" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="4" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="5" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="133">
+  <cellXfs count="122">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2499,47 +2339,44 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2547,6 +2384,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2557,37 +2397,40 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2595,39 +2438,30 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="24" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="24" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2638,19 +2472,28 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2665,13 +2508,16 @@
     <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2686,100 +2532,73 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2788,29 +2607,23 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2818,50 +2631,44 @@
     <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="24" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="24" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3216,649 +3023,650 @@
   </sheetPr>
   <dimension ref="A1:I51"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="149" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A4" sqref="$A4:$XFD4"/>
+    <sheetView view="pageBreakPreview" zoomScale="121" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <cols>
-    <col min="1" max="1" width="5.92307692307692" customWidth="1"/>
-    <col min="2" max="2" width="14.5769230769231" customWidth="1"/>
-    <col min="3" max="3" width="39.75" customWidth="1"/>
-    <col min="4" max="5" width="13.5" customWidth="1"/>
-    <col min="6" max="6" width="16.3461538461538" customWidth="1"/>
-    <col min="7" max="7" width="31.7307692307692" customWidth="1"/>
-    <col min="8" max="8" width="14.25" customWidth="1"/>
-    <col min="10" max="10" width="12.75" customWidth="1"/>
+    <col min="1" max="1" width="5.92307692307692" style="60" customWidth="1"/>
+    <col min="2" max="2" width="14.5769230769231" style="60" customWidth="1"/>
+    <col min="3" max="3" width="39.75" style="60" customWidth="1"/>
+    <col min="4" max="5" width="13.5" style="60" customWidth="1"/>
+    <col min="6" max="6" width="16.3461538461538" style="60" customWidth="1"/>
+    <col min="7" max="7" width="31.7307692307692" style="60" customWidth="1"/>
+    <col min="8" max="8" width="14.25" style="60" customWidth="1"/>
+    <col min="9" max="9" width="9" style="60"/>
+    <col min="10" max="10" width="12.75" style="60" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="60"/>
   </cols>
   <sheetData>
-    <row r="1" ht="51.95" customHeight="1" spans="1:7">
-      <c r="A1" s="59"/>
-      <c r="B1" s="60" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-    </row>
-    <row r="2" s="7" customFormat="1" ht="50.1" customHeight="1" spans="1:8">
-      <c r="A2" s="61" t="s">
+    <row r="1" ht="43" customHeight="1" spans="1:7">
+      <c r="A1" s="61"/>
+      <c r="B1" s="62" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+    </row>
+    <row r="2" s="56" customFormat="1" ht="50.1" customHeight="1" spans="1:8">
+      <c r="A2" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="112"/>
-    </row>
-    <row r="3" s="1" customFormat="1" ht="39.95" customHeight="1" spans="1:7">
-      <c r="A3" s="63"/>
-      <c r="B3" s="64" t="s">
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="105"/>
+    </row>
+    <row r="3" s="57" customFormat="1" ht="39.95" customHeight="1" spans="1:7">
+      <c r="A3" s="64"/>
+      <c r="B3" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="65"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="64" t="s">
+      <c r="C3" s="66"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="113"/>
-      <c r="G3" s="114"/>
-    </row>
-    <row r="4" s="1" customFormat="1" ht="66" customHeight="1" spans="1:7">
-      <c r="A4" s="63"/>
-      <c r="B4" s="64" t="s">
+      <c r="F3" s="104"/>
+      <c r="G3" s="106"/>
+    </row>
+    <row r="4" s="57" customFormat="1" ht="66" customHeight="1" spans="1:7">
+      <c r="A4" s="64"/>
+      <c r="B4" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="115" t="s">
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="113"/>
-      <c r="G4" s="116"/>
-    </row>
-    <row r="5" s="1" customFormat="1" ht="20.25" customHeight="1" spans="1:7">
-      <c r="A5" s="63"/>
-      <c r="B5" s="64" t="s">
+      <c r="F4" s="104"/>
+      <c r="G4" s="107"/>
+    </row>
+    <row r="5" s="57" customFormat="1" ht="20.25" customHeight="1" spans="1:7">
+      <c r="A5" s="64"/>
+      <c r="B5" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="68" t="s">
+      <c r="C5" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="68"/>
-      <c r="E5" s="64" t="s">
+      <c r="D5" s="70"/>
+      <c r="E5" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="113"/>
-      <c r="G5" s="117"/>
-    </row>
-    <row r="6" s="1" customFormat="1" ht="24.75" customHeight="1" spans="1:7">
-      <c r="A6" s="63"/>
-      <c r="B6" s="64" t="s">
+      <c r="F5" s="104"/>
+      <c r="G5" s="108"/>
+    </row>
+    <row r="6" s="57" customFormat="1" ht="24.75" customHeight="1" spans="1:7">
+      <c r="A6" s="64"/>
+      <c r="B6" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="69" t="s">
+      <c r="C6" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="69"/>
-      <c r="E6" s="118" t="s">
+      <c r="D6" s="71"/>
+      <c r="E6" s="109" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="69"/>
-      <c r="G6" s="119"/>
-    </row>
-    <row r="7" s="1" customFormat="1" ht="81" customHeight="1" spans="1:7">
-      <c r="A7" s="70" t="s">
+      <c r="F6" s="62"/>
+      <c r="G6" s="110"/>
+    </row>
+    <row r="7" s="57" customFormat="1" ht="81" customHeight="1" spans="1:7">
+      <c r="A7" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="64" t="s">
+      <c r="B7" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="71"/>
-      <c r="D7" s="71"/>
-      <c r="E7" s="120" t="s">
+      <c r="C7" s="73"/>
+      <c r="D7" s="73"/>
+      <c r="E7" s="111" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="120"/>
-      <c r="G7" s="120"/>
-    </row>
-    <row r="8" s="2" customFormat="1" ht="62" customHeight="1" spans="1:7">
-      <c r="A8" s="63"/>
-      <c r="B8" s="64" t="s">
+      <c r="F7" s="112"/>
+      <c r="G7" s="112"/>
+    </row>
+    <row r="8" s="58" customFormat="1" ht="62" customHeight="1" spans="1:7">
+      <c r="A8" s="64"/>
+      <c r="B8" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="66"/>
-      <c r="D8" s="66"/>
-      <c r="E8" s="120"/>
-      <c r="F8" s="120"/>
-      <c r="G8" s="120"/>
-    </row>
-    <row r="9" s="1" customFormat="1" ht="34.5" customHeight="1" spans="1:7">
-      <c r="A9" s="72"/>
-      <c r="B9" s="73" t="s">
+      <c r="C8" s="67"/>
+      <c r="D8" s="67"/>
+      <c r="E8" s="112"/>
+      <c r="F8" s="112"/>
+      <c r="G8" s="112"/>
+    </row>
+    <row r="9" s="57" customFormat="1" ht="34.5" customHeight="1" spans="1:7">
+      <c r="A9" s="74"/>
+      <c r="B9" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="71"/>
-      <c r="D9" s="71"/>
-      <c r="E9" s="71"/>
-      <c r="F9" s="71"/>
-      <c r="G9" s="71"/>
-    </row>
-    <row r="10" s="58" customFormat="1" ht="71.1" customHeight="1" spans="1:9">
-      <c r="A10" s="74">
+      <c r="C9" s="73"/>
+      <c r="D9" s="73"/>
+      <c r="E9" s="73"/>
+      <c r="F9" s="73"/>
+      <c r="G9" s="73"/>
+    </row>
+    <row r="10" s="59" customFormat="1" ht="71.1" customHeight="1" spans="1:9">
+      <c r="A10" s="76">
         <v>1</v>
       </c>
-      <c r="B10" s="75" t="s">
+      <c r="B10" s="77" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="75" t="s">
+      <c r="C10" s="77" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="76" t="s">
+      <c r="D10" s="77" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="75" t="s">
+      <c r="E10" s="77" t="s">
         <v>18</v>
       </c>
-      <c r="F10" s="75" t="s">
+      <c r="F10" s="77" t="s">
         <v>19</v>
       </c>
-      <c r="G10" s="121" t="s">
+      <c r="G10" s="113" t="s">
         <v>20</v>
       </c>
-      <c r="I10" s="132"/>
-    </row>
-    <row r="11" s="58" customFormat="1" ht="48.95" customHeight="1" spans="1:9">
-      <c r="A11" s="74"/>
-      <c r="B11" s="77"/>
-      <c r="C11" s="78"/>
-      <c r="D11" s="78"/>
-      <c r="E11" s="78"/>
-      <c r="F11" s="122"/>
-      <c r="G11" s="122"/>
-      <c r="H11" s="123"/>
-      <c r="I11" s="132"/>
-    </row>
-    <row r="12" s="58" customFormat="1" ht="42" customHeight="1" spans="1:9">
-      <c r="A12" s="74"/>
-      <c r="B12" s="79"/>
+      <c r="I10" s="121"/>
+    </row>
+    <row r="11" s="59" customFormat="1" ht="48.95" customHeight="1" spans="1:9">
+      <c r="A11" s="76"/>
+      <c r="B11" s="78"/>
+      <c r="C11" s="79"/>
+      <c r="D11" s="79"/>
+      <c r="E11" s="79"/>
+      <c r="F11" s="114"/>
+      <c r="G11" s="114"/>
+      <c r="H11" s="59"/>
+      <c r="I11" s="121"/>
+    </row>
+    <row r="12" s="59" customFormat="1" ht="42" customHeight="1" spans="1:9">
+      <c r="A12" s="76"/>
+      <c r="B12" s="80"/>
       <c r="C12" s="80"/>
-      <c r="D12" s="81"/>
-      <c r="E12" s="78"/>
-      <c r="F12" s="122"/>
-      <c r="G12" s="122"/>
-      <c r="H12" s="123"/>
-      <c r="I12" s="132"/>
-    </row>
-    <row r="13" s="58" customFormat="1" ht="42" customHeight="1" spans="1:9">
-      <c r="A13" s="74"/>
-      <c r="B13" s="79"/>
+      <c r="D12" s="79"/>
+      <c r="E12" s="79"/>
+      <c r="F12" s="114"/>
+      <c r="G12" s="114"/>
+      <c r="H12" s="59"/>
+      <c r="I12" s="121"/>
+    </row>
+    <row r="13" s="59" customFormat="1" ht="42" customHeight="1" spans="1:9">
+      <c r="A13" s="76"/>
+      <c r="B13" s="80"/>
       <c r="C13" s="80"/>
-      <c r="D13" s="81"/>
-      <c r="E13" s="78"/>
-      <c r="F13" s="122"/>
-      <c r="G13" s="122"/>
-      <c r="H13" s="123"/>
-      <c r="I13" s="132"/>
-    </row>
-    <row r="14" s="58" customFormat="1" ht="42" customHeight="1" spans="1:9">
-      <c r="A14" s="74"/>
-      <c r="B14" s="79"/>
+      <c r="D13" s="79"/>
+      <c r="E13" s="79"/>
+      <c r="F13" s="114"/>
+      <c r="G13" s="114"/>
+      <c r="H13" s="59"/>
+      <c r="I13" s="121"/>
+    </row>
+    <row r="14" s="59" customFormat="1" ht="42" customHeight="1" spans="1:9">
+      <c r="A14" s="76"/>
+      <c r="B14" s="80"/>
       <c r="C14" s="80"/>
-      <c r="D14" s="81"/>
-      <c r="E14" s="78"/>
-      <c r="F14" s="122"/>
-      <c r="G14" s="122"/>
-      <c r="H14" s="123"/>
-      <c r="I14" s="132"/>
-    </row>
-    <row r="15" s="58" customFormat="1" ht="42" customHeight="1" spans="1:9">
-      <c r="A15" s="74"/>
-      <c r="B15" s="79"/>
+      <c r="D14" s="79"/>
+      <c r="E14" s="79"/>
+      <c r="F14" s="114"/>
+      <c r="G14" s="114"/>
+      <c r="H14" s="59"/>
+      <c r="I14" s="121"/>
+    </row>
+    <row r="15" s="59" customFormat="1" ht="42" customHeight="1" spans="1:9">
+      <c r="A15" s="76"/>
+      <c r="B15" s="80"/>
       <c r="C15" s="80"/>
-      <c r="D15" s="81"/>
-      <c r="E15" s="78"/>
-      <c r="F15" s="122"/>
-      <c r="G15" s="122"/>
-      <c r="H15" s="123"/>
-      <c r="I15" s="132"/>
-    </row>
-    <row r="16" s="58" customFormat="1" ht="42" customHeight="1" spans="1:9">
-      <c r="A16" s="74"/>
-      <c r="B16" s="79"/>
+      <c r="D15" s="79"/>
+      <c r="E15" s="79"/>
+      <c r="F15" s="114"/>
+      <c r="G15" s="114"/>
+      <c r="H15" s="59"/>
+      <c r="I15" s="121"/>
+    </row>
+    <row r="16" s="59" customFormat="1" ht="42" customHeight="1" spans="1:9">
+      <c r="A16" s="76"/>
+      <c r="B16" s="80"/>
       <c r="C16" s="80"/>
-      <c r="D16" s="81"/>
-      <c r="E16" s="78"/>
-      <c r="F16" s="122"/>
-      <c r="G16" s="122"/>
-      <c r="H16" s="123"/>
-      <c r="I16" s="132"/>
-    </row>
-    <row r="17" s="58" customFormat="1" ht="42" customHeight="1" spans="1:9">
-      <c r="A17" s="74"/>
-      <c r="B17" s="79"/>
+      <c r="D16" s="79"/>
+      <c r="E16" s="79"/>
+      <c r="F16" s="114"/>
+      <c r="G16" s="114"/>
+      <c r="H16" s="59"/>
+      <c r="I16" s="121"/>
+    </row>
+    <row r="17" s="59" customFormat="1" ht="42" customHeight="1" spans="1:9">
+      <c r="A17" s="76"/>
+      <c r="B17" s="80"/>
       <c r="C17" s="80"/>
-      <c r="D17" s="81"/>
-      <c r="E17" s="78"/>
-      <c r="F17" s="122"/>
-      <c r="G17" s="122"/>
-      <c r="H17" s="123"/>
-      <c r="I17" s="132"/>
-    </row>
-    <row r="18" s="58" customFormat="1" ht="42" customHeight="1" spans="1:9">
-      <c r="A18" s="74"/>
-      <c r="B18" s="79"/>
+      <c r="D17" s="79"/>
+      <c r="E17" s="79"/>
+      <c r="F17" s="114"/>
+      <c r="G17" s="114"/>
+      <c r="H17" s="59"/>
+      <c r="I17" s="121"/>
+    </row>
+    <row r="18" s="59" customFormat="1" ht="42" customHeight="1" spans="1:9">
+      <c r="A18" s="76"/>
+      <c r="B18" s="80"/>
       <c r="C18" s="80"/>
-      <c r="D18" s="81"/>
-      <c r="E18" s="78"/>
-      <c r="F18" s="122"/>
-      <c r="G18" s="122"/>
-      <c r="H18" s="123"/>
-      <c r="I18" s="132"/>
-    </row>
-    <row r="19" s="58" customFormat="1" ht="42" customHeight="1" spans="1:9">
-      <c r="A19" s="74"/>
-      <c r="B19" s="79"/>
+      <c r="D18" s="79"/>
+      <c r="E18" s="79"/>
+      <c r="F18" s="114"/>
+      <c r="G18" s="114"/>
+      <c r="H18" s="59"/>
+      <c r="I18" s="121"/>
+    </row>
+    <row r="19" s="59" customFormat="1" ht="42" customHeight="1" spans="1:9">
+      <c r="A19" s="76"/>
+      <c r="B19" s="80"/>
       <c r="C19" s="80"/>
-      <c r="D19" s="81"/>
-      <c r="E19" s="78"/>
-      <c r="F19" s="122"/>
-      <c r="G19" s="122"/>
-      <c r="H19" s="123"/>
-      <c r="I19" s="132"/>
-    </row>
-    <row r="20" s="58" customFormat="1" ht="42" customHeight="1" spans="1:9">
-      <c r="A20" s="74"/>
-      <c r="B20" s="79"/>
+      <c r="D19" s="79"/>
+      <c r="E19" s="79"/>
+      <c r="F19" s="114"/>
+      <c r="G19" s="114"/>
+      <c r="H19" s="59"/>
+      <c r="I19" s="121"/>
+    </row>
+    <row r="20" s="59" customFormat="1" ht="42" customHeight="1" spans="1:9">
+      <c r="A20" s="76"/>
+      <c r="B20" s="80"/>
       <c r="C20" s="80"/>
-      <c r="D20" s="81"/>
-      <c r="E20" s="78"/>
-      <c r="F20" s="122"/>
-      <c r="G20" s="122"/>
-      <c r="H20" s="123"/>
-      <c r="I20" s="132"/>
-    </row>
-    <row r="21" s="58" customFormat="1" ht="42" customHeight="1" spans="1:9">
-      <c r="A21" s="74"/>
-      <c r="B21" s="79" t="s">
+      <c r="D20" s="79"/>
+      <c r="E20" s="79"/>
+      <c r="F20" s="114"/>
+      <c r="G20" s="114"/>
+      <c r="H20" s="59"/>
+      <c r="I20" s="121"/>
+    </row>
+    <row r="21" s="59" customFormat="1" ht="42" customHeight="1" spans="1:9">
+      <c r="A21" s="76"/>
+      <c r="B21" s="80" t="s">
         <v>21</v>
       </c>
       <c r="C21" s="80"/>
-      <c r="D21" s="81"/>
-      <c r="E21" s="78"/>
-      <c r="F21" s="124" t="s">
+      <c r="D21" s="79"/>
+      <c r="E21" s="79"/>
+      <c r="F21" s="115" t="s">
         <v>22</v>
       </c>
-      <c r="G21" s="122">
+      <c r="G21" s="114">
         <f>SUM(G11:G20)</f>
         <v>0</v>
       </c>
-      <c r="H21" s="123"/>
-      <c r="I21" s="132"/>
-    </row>
-    <row r="22" s="1" customFormat="1" ht="40" customHeight="1" spans="1:7">
-      <c r="A22" s="82"/>
-      <c r="B22" s="79" t="s">
+      <c r="I21" s="121"/>
+    </row>
+    <row r="22" s="57" customFormat="1" ht="40" customHeight="1" spans="1:7">
+      <c r="A22" s="81"/>
+      <c r="B22" s="80" t="s">
         <v>23</v>
       </c>
       <c r="C22" s="80"/>
-      <c r="D22" s="78"/>
-      <c r="E22" s="78"/>
-      <c r="F22" s="125"/>
-      <c r="G22" s="126">
+      <c r="D22" s="79"/>
+      <c r="E22" s="79"/>
+      <c r="F22" s="116"/>
+      <c r="G22" s="117">
         <f>G21</f>
         <v>0</v>
       </c>
     </row>
-    <row r="23" s="1" customFormat="1" ht="32.45" customHeight="1" spans="1:7">
-      <c r="A23" s="82"/>
-      <c r="B23" s="83"/>
-      <c r="C23" s="84"/>
-      <c r="D23" s="84"/>
-      <c r="E23" s="84"/>
-      <c r="F23" s="127"/>
-      <c r="G23" s="128"/>
-    </row>
-    <row r="24" s="1" customFormat="1" ht="33.95" customHeight="1" spans="1:7">
-      <c r="A24" s="82">
+    <row r="23" s="57" customFormat="1" ht="32.45" customHeight="1" spans="1:7">
+      <c r="A23" s="81"/>
+      <c r="B23" s="82"/>
+      <c r="C23" s="83"/>
+      <c r="D23" s="83"/>
+      <c r="E23" s="83"/>
+      <c r="F23" s="118"/>
+      <c r="G23" s="119"/>
+    </row>
+    <row r="24" s="57" customFormat="1" ht="33.95" customHeight="1" spans="1:7">
+      <c r="A24" s="81">
         <v>2</v>
       </c>
-      <c r="B24" s="85" t="s">
+      <c r="B24" s="84" t="s">
         <v>24</v>
       </c>
-      <c r="C24" s="86"/>
-      <c r="D24" s="87"/>
-      <c r="E24" s="129"/>
-      <c r="F24" s="129"/>
-      <c r="G24" s="129"/>
-    </row>
-    <row r="25" s="1" customFormat="1" ht="18" customHeight="1" spans="1:7">
-      <c r="A25" s="88" t="s">
+      <c r="C24" s="84"/>
+      <c r="D24" s="85"/>
+      <c r="E24" s="85"/>
+      <c r="F24" s="85"/>
+      <c r="G24" s="85"/>
+    </row>
+    <row r="25" s="57" customFormat="1" ht="18" customHeight="1" spans="1:7">
+      <c r="A25" s="86" t="s">
         <v>25</v>
       </c>
-      <c r="B25" s="89" t="s">
+      <c r="B25" s="87" t="s">
         <v>26</v>
       </c>
-      <c r="C25" s="90"/>
-      <c r="D25" s="91"/>
-      <c r="E25" s="130"/>
-      <c r="F25" s="130"/>
-      <c r="G25" s="130"/>
-    </row>
-    <row r="26" s="1" customFormat="1" ht="23.1" customHeight="1" spans="1:7">
-      <c r="A26" s="74">
+      <c r="C25" s="87"/>
+      <c r="D25" s="88"/>
+      <c r="E25" s="88"/>
+      <c r="F25" s="88"/>
+      <c r="G25" s="88"/>
+    </row>
+    <row r="26" s="57" customFormat="1" ht="23.1" customHeight="1" spans="1:7">
+      <c r="A26" s="76">
         <v>3.2</v>
       </c>
-      <c r="B26" s="92" t="s">
+      <c r="B26" s="87" t="s">
         <v>27</v>
       </c>
-      <c r="C26" s="90"/>
-      <c r="D26" s="93"/>
-      <c r="E26" s="130"/>
-      <c r="F26" s="130"/>
-      <c r="G26" s="130"/>
-    </row>
-    <row r="27" s="1" customFormat="1" ht="56" customHeight="1" spans="1:7">
-      <c r="A27" s="94">
+      <c r="C26" s="87"/>
+      <c r="D26" s="88"/>
+      <c r="E26" s="88"/>
+      <c r="F26" s="88"/>
+      <c r="G26" s="88"/>
+    </row>
+    <row r="27" s="57" customFormat="1" ht="56" customHeight="1" spans="1:7">
+      <c r="A27" s="68">
         <v>3.3</v>
       </c>
-      <c r="B27" s="95" t="s">
+      <c r="B27" s="89" t="s">
         <v>28</v>
       </c>
-      <c r="C27" s="96"/>
-      <c r="D27" s="71" t="s">
+      <c r="C27" s="89"/>
+      <c r="D27" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="E27" s="71"/>
-      <c r="F27" s="71"/>
-      <c r="G27" s="71"/>
-    </row>
-    <row r="28" s="1" customFormat="1" ht="23.1" customHeight="1" spans="1:7">
-      <c r="A28" s="94">
+      <c r="E27" s="73"/>
+      <c r="F27" s="73"/>
+      <c r="G27" s="73"/>
+    </row>
+    <row r="28" s="57" customFormat="1" ht="23.1" customHeight="1" spans="1:7">
+      <c r="A28" s="68">
         <v>3.4</v>
       </c>
-      <c r="B28" s="92" t="s">
+      <c r="B28" s="90" t="s">
         <v>30</v>
       </c>
-      <c r="C28" s="90"/>
+      <c r="C28" s="87"/>
       <c r="D28" s="91" t="s">
         <v>31</v>
       </c>
-      <c r="E28" s="130"/>
-      <c r="F28" s="130"/>
-      <c r="G28" s="130"/>
-    </row>
-    <row r="29" s="1" customFormat="1" ht="23.1" customHeight="1" spans="1:7">
-      <c r="A29" s="94">
+      <c r="E28" s="88"/>
+      <c r="F28" s="88"/>
+      <c r="G28" s="88"/>
+    </row>
+    <row r="29" s="57" customFormat="1" ht="23.1" customHeight="1" spans="1:7">
+      <c r="A29" s="68">
         <v>3.5</v>
       </c>
-      <c r="B29" s="92" t="s">
+      <c r="B29" s="90" t="s">
         <v>32</v>
       </c>
-      <c r="C29" s="90"/>
+      <c r="C29" s="87"/>
       <c r="D29" s="91" t="s">
         <v>31</v>
       </c>
-      <c r="E29" s="130"/>
-      <c r="F29" s="130"/>
-      <c r="G29" s="130"/>
-    </row>
-    <row r="30" s="1" customFormat="1" ht="20" customHeight="1" spans="1:7">
-      <c r="A30" s="97">
+      <c r="E29" s="88"/>
+      <c r="F29" s="88"/>
+      <c r="G29" s="88"/>
+    </row>
+    <row r="30" s="57" customFormat="1" ht="20" customHeight="1" spans="1:7">
+      <c r="A30" s="92">
         <v>4</v>
       </c>
-      <c r="B30" s="98" t="s">
+      <c r="B30" s="93" t="s">
         <v>33</v>
       </c>
-      <c r="C30" s="99"/>
-      <c r="D30" s="100"/>
-      <c r="E30" s="100"/>
-      <c r="F30" s="100"/>
-      <c r="G30" s="100"/>
-    </row>
-    <row r="31" s="1" customFormat="1" ht="18" customHeight="1" spans="1:7">
-      <c r="A31" s="88" t="s">
+      <c r="C30" s="93"/>
+      <c r="D30" s="94"/>
+      <c r="E30" s="94"/>
+      <c r="F30" s="94"/>
+      <c r="G30" s="94"/>
+    </row>
+    <row r="31" s="57" customFormat="1" ht="18" customHeight="1" spans="1:7">
+      <c r="A31" s="86" t="s">
         <v>34</v>
       </c>
-      <c r="B31" s="101" t="s">
+      <c r="B31" s="95" t="s">
         <v>35</v>
       </c>
-      <c r="C31" s="90"/>
-      <c r="D31" s="90"/>
-      <c r="E31" s="90"/>
-      <c r="F31" s="90"/>
-      <c r="G31" s="90"/>
-    </row>
-    <row r="32" s="1" customFormat="1" ht="41" customHeight="1" spans="1:7">
-      <c r="A32" s="97"/>
-      <c r="B32" s="102" t="s">
+      <c r="C31" s="87"/>
+      <c r="D31" s="87"/>
+      <c r="E31" s="87"/>
+      <c r="F31" s="87"/>
+      <c r="G31" s="87"/>
+    </row>
+    <row r="32" s="57" customFormat="1" ht="56" customHeight="1" spans="1:7">
+      <c r="A32" s="92"/>
+      <c r="B32" s="75" t="s">
         <v>36</v>
       </c>
-      <c r="C32" s="71"/>
-      <c r="D32" s="71"/>
-      <c r="E32" s="71"/>
-      <c r="F32" s="71"/>
-      <c r="G32" s="71"/>
-    </row>
-    <row r="33" s="1" customFormat="1" ht="18" customHeight="1" spans="1:7">
-      <c r="A33" s="88" t="s">
+      <c r="C32" s="73"/>
+      <c r="D32" s="73"/>
+      <c r="E32" s="73"/>
+      <c r="F32" s="73"/>
+      <c r="G32" s="73"/>
+    </row>
+    <row r="33" s="57" customFormat="1" ht="18" customHeight="1" spans="1:7">
+      <c r="A33" s="86" t="s">
         <v>37</v>
       </c>
-      <c r="B33" s="101" t="s">
+      <c r="B33" s="89" t="s">
         <v>38</v>
       </c>
-      <c r="C33" s="90"/>
-      <c r="D33" s="90"/>
-      <c r="E33" s="90"/>
-      <c r="F33" s="90"/>
-      <c r="G33" s="90"/>
-    </row>
-    <row r="34" s="1" customFormat="1" ht="71" customHeight="1" spans="1:7">
-      <c r="A34" s="74"/>
-      <c r="B34" s="103" t="s">
+      <c r="C33" s="87"/>
+      <c r="D33" s="87"/>
+      <c r="E33" s="87"/>
+      <c r="F33" s="87"/>
+      <c r="G33" s="87"/>
+    </row>
+    <row r="34" s="57" customFormat="1" ht="55" customHeight="1" spans="1:7">
+      <c r="A34" s="76"/>
+      <c r="B34" s="96" t="s">
         <v>39</v>
       </c>
-      <c r="C34" s="99"/>
-      <c r="D34" s="99"/>
-      <c r="E34" s="99"/>
-      <c r="F34" s="99"/>
-      <c r="G34" s="99"/>
-    </row>
-    <row r="35" s="1" customFormat="1" ht="18" customHeight="1" spans="1:7">
-      <c r="A35" s="88" t="s">
+      <c r="C34" s="93"/>
+      <c r="D34" s="93"/>
+      <c r="E34" s="93"/>
+      <c r="F34" s="93"/>
+      <c r="G34" s="93"/>
+    </row>
+    <row r="35" s="57" customFormat="1" ht="18" customHeight="1" spans="1:7">
+      <c r="A35" s="86" t="s">
         <v>40</v>
       </c>
-      <c r="B35" s="89" t="s">
+      <c r="B35" s="87" t="s">
         <v>41</v>
       </c>
-      <c r="C35" s="90"/>
-      <c r="D35" s="90"/>
-      <c r="E35" s="90"/>
-      <c r="F35" s="90"/>
-      <c r="G35" s="90"/>
-    </row>
-    <row r="36" s="1" customFormat="1" ht="231" customHeight="1" spans="1:7">
-      <c r="A36" s="104"/>
-      <c r="B36" s="99" t="s">
+      <c r="C35" s="87"/>
+      <c r="D35" s="87"/>
+      <c r="E35" s="87"/>
+      <c r="F35" s="87"/>
+      <c r="G35" s="87"/>
+    </row>
+    <row r="36" s="57" customFormat="1" ht="231" customHeight="1" spans="1:7">
+      <c r="A36" s="97"/>
+      <c r="B36" s="93" t="s">
         <v>42</v>
       </c>
-      <c r="C36" s="99"/>
-      <c r="D36" s="99"/>
-      <c r="E36" s="99"/>
-      <c r="F36" s="99"/>
-      <c r="G36" s="99"/>
-    </row>
-    <row r="37" s="1" customFormat="1" ht="153" customHeight="1" spans="1:7">
-      <c r="A37" s="105"/>
-      <c r="B37" s="96" t="s">
+      <c r="C36" s="93"/>
+      <c r="D36" s="93"/>
+      <c r="E36" s="93"/>
+      <c r="F36" s="93"/>
+      <c r="G36" s="93"/>
+    </row>
+    <row r="37" s="57" customFormat="1" ht="153" customHeight="1" spans="1:7">
+      <c r="A37" s="98"/>
+      <c r="B37" s="89" t="s">
         <v>43</v>
       </c>
-      <c r="C37" s="71"/>
-      <c r="D37" s="71"/>
-      <c r="E37" s="71"/>
-      <c r="F37" s="71"/>
-      <c r="G37" s="71"/>
-    </row>
-    <row r="38" s="1" customFormat="1" ht="18" customHeight="1" spans="1:7">
-      <c r="A38" s="88" t="s">
+      <c r="C37" s="73"/>
+      <c r="D37" s="73"/>
+      <c r="E37" s="73"/>
+      <c r="F37" s="73"/>
+      <c r="G37" s="73"/>
+    </row>
+    <row r="38" s="57" customFormat="1" ht="18" customHeight="1" spans="1:7">
+      <c r="A38" s="86" t="s">
         <v>44</v>
       </c>
-      <c r="B38" s="89" t="s">
+      <c r="B38" s="87" t="s">
         <v>45</v>
       </c>
-      <c r="C38" s="90"/>
-      <c r="D38" s="90"/>
-      <c r="E38" s="90"/>
-      <c r="F38" s="90"/>
-      <c r="G38" s="90"/>
-    </row>
-    <row r="39" s="1" customFormat="1" ht="194" customHeight="1" spans="1:7">
-      <c r="A39" s="74"/>
-      <c r="B39" s="73" t="s">
+      <c r="C38" s="87"/>
+      <c r="D38" s="87"/>
+      <c r="E38" s="87"/>
+      <c r="F38" s="87"/>
+      <c r="G38" s="87"/>
+    </row>
+    <row r="39" s="57" customFormat="1" ht="194" customHeight="1" spans="1:7">
+      <c r="A39" s="76"/>
+      <c r="B39" s="75" t="s">
         <v>46</v>
       </c>
-      <c r="C39" s="96"/>
-      <c r="D39" s="96"/>
-      <c r="E39" s="96"/>
-      <c r="F39" s="96"/>
-      <c r="G39" s="96"/>
-    </row>
-    <row r="40" s="1" customFormat="1" ht="18" customHeight="1" spans="1:7">
-      <c r="A40" s="88" t="s">
+      <c r="C39" s="89"/>
+      <c r="D39" s="89"/>
+      <c r="E39" s="89"/>
+      <c r="F39" s="89"/>
+      <c r="G39" s="89"/>
+    </row>
+    <row r="40" s="57" customFormat="1" ht="18" customHeight="1" spans="1:7">
+      <c r="A40" s="86" t="s">
         <v>47</v>
       </c>
-      <c r="B40" s="89" t="s">
+      <c r="B40" s="87" t="s">
         <v>48</v>
       </c>
-      <c r="C40" s="90"/>
-      <c r="D40" s="90"/>
-      <c r="E40" s="90"/>
-      <c r="F40" s="90"/>
-      <c r="G40" s="90"/>
-    </row>
-    <row r="41" s="1" customFormat="1" ht="34" customHeight="1" spans="1:7">
-      <c r="A41" s="97"/>
-      <c r="B41" s="96" t="s">
+      <c r="C40" s="87"/>
+      <c r="D40" s="87"/>
+      <c r="E40" s="87"/>
+      <c r="F40" s="87"/>
+      <c r="G40" s="87"/>
+    </row>
+    <row r="41" s="57" customFormat="1" ht="34" customHeight="1" spans="1:7">
+      <c r="A41" s="92"/>
+      <c r="B41" s="89" t="s">
         <v>49</v>
       </c>
-      <c r="C41" s="96"/>
-      <c r="D41" s="96"/>
-      <c r="E41" s="96"/>
-      <c r="F41" s="96"/>
-      <c r="G41" s="96"/>
-    </row>
-    <row r="42" s="1" customFormat="1" ht="112" customHeight="1" spans="1:7">
-      <c r="A42" s="97"/>
-      <c r="B42" s="96" t="s">
+      <c r="C41" s="89"/>
+      <c r="D41" s="89"/>
+      <c r="E41" s="89"/>
+      <c r="F41" s="89"/>
+      <c r="G41" s="89"/>
+    </row>
+    <row r="42" s="57" customFormat="1" ht="90" customHeight="1" spans="1:7">
+      <c r="A42" s="92"/>
+      <c r="B42" s="89" t="s">
         <v>50</v>
       </c>
-      <c r="C42" s="96"/>
-      <c r="D42" s="96"/>
-      <c r="E42" s="96"/>
-      <c r="F42" s="96"/>
-      <c r="G42" s="96"/>
-    </row>
-    <row r="43" s="7" customFormat="1" ht="15" customHeight="1" spans="1:7">
-      <c r="A43" s="88" t="s">
+      <c r="C42" s="89"/>
+      <c r="D42" s="89"/>
+      <c r="E42" s="89"/>
+      <c r="F42" s="89"/>
+      <c r="G42" s="89"/>
+    </row>
+    <row r="43" s="56" customFormat="1" ht="15" customHeight="1" spans="1:7">
+      <c r="A43" s="86" t="s">
         <v>51</v>
       </c>
       <c r="B43" s="73" t="s">
         <v>52</v>
       </c>
-      <c r="C43" s="71"/>
-      <c r="D43" s="71"/>
-      <c r="E43" s="71"/>
-      <c r="F43" s="71"/>
-      <c r="G43" s="71"/>
-    </row>
-    <row r="44" s="7" customFormat="1" ht="129" customHeight="1" spans="1:7">
-      <c r="A44" s="63"/>
-      <c r="B44" s="106" t="s">
+      <c r="C43" s="73"/>
+      <c r="D43" s="73"/>
+      <c r="E43" s="73"/>
+      <c r="F43" s="73"/>
+      <c r="G43" s="73"/>
+    </row>
+    <row r="44" s="56" customFormat="1" ht="129" customHeight="1" spans="1:7">
+      <c r="A44" s="64"/>
+      <c r="B44" s="99" t="s">
         <v>53</v>
       </c>
-      <c r="C44" s="107"/>
-      <c r="D44" s="107"/>
-      <c r="E44" s="107"/>
-      <c r="F44" s="107"/>
-      <c r="G44" s="107"/>
-    </row>
-    <row r="45" s="7" customFormat="1" ht="15" customHeight="1" spans="1:7">
-      <c r="A45" s="88" t="s">
+      <c r="C44" s="100"/>
+      <c r="D44" s="100"/>
+      <c r="E44" s="100"/>
+      <c r="F44" s="100"/>
+      <c r="G44" s="100"/>
+    </row>
+    <row r="45" s="56" customFormat="1" ht="15" customHeight="1" spans="1:7">
+      <c r="A45" s="86" t="s">
         <v>54</v>
       </c>
-      <c r="B45" s="102" t="s">
+      <c r="B45" s="73" t="s">
         <v>55</v>
       </c>
-      <c r="C45" s="71"/>
-      <c r="D45" s="71"/>
-      <c r="E45" s="71"/>
-      <c r="F45" s="71"/>
-      <c r="G45" s="71"/>
-    </row>
-    <row r="46" s="7" customFormat="1" ht="18" customHeight="1" spans="1:7">
-      <c r="A46" s="104"/>
-      <c r="B46" s="108" t="s">
+      <c r="C45" s="73"/>
+      <c r="D45" s="73"/>
+      <c r="E45" s="73"/>
+      <c r="F45" s="73"/>
+      <c r="G45" s="73"/>
+    </row>
+    <row r="46" s="56" customFormat="1" ht="34" customHeight="1" spans="1:7">
+      <c r="A46" s="97"/>
+      <c r="B46" s="101" t="s">
         <v>56</v>
       </c>
-      <c r="C46" s="108"/>
-      <c r="D46" s="108"/>
-      <c r="E46" s="108"/>
-      <c r="F46" s="108"/>
-      <c r="G46" s="108"/>
-    </row>
-    <row r="47" s="7" customFormat="1" ht="64.5" customHeight="1" spans="1:5">
-      <c r="A47" s="109"/>
-      <c r="B47" s="110" t="s">
+      <c r="C46" s="102"/>
+      <c r="D46" s="102"/>
+      <c r="E46" s="102"/>
+      <c r="F46" s="102"/>
+      <c r="G46" s="102"/>
+    </row>
+    <row r="47" s="56" customFormat="1" ht="64.5" customHeight="1" spans="1:5">
+      <c r="A47" s="64"/>
+      <c r="B47" s="103" t="s">
         <v>57</v>
       </c>
-      <c r="C47" s="111"/>
-      <c r="D47" s="111"/>
-      <c r="E47" s="131" t="s">
+      <c r="C47" s="104"/>
+      <c r="D47" s="104"/>
+      <c r="E47" s="120" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="48" s="7" customFormat="1" ht="15" customHeight="1" spans="1:7">
-      <c r="A48" s="109"/>
-      <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
-      <c r="F48" s="1"/>
-      <c r="G48" s="1"/>
-    </row>
-    <row r="49" s="7" customFormat="1" ht="15" customHeight="1" spans="1:7">
-      <c r="A49" s="109"/>
-      <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
-      <c r="F49" s="1"/>
-      <c r="G49" s="1"/>
-    </row>
-    <row r="50" s="7" customFormat="1" ht="15" customHeight="1" spans="1:7">
-      <c r="A50" s="109"/>
-      <c r="B50" s="1"/>
-      <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
-      <c r="E50" s="1"/>
-      <c r="F50" s="1"/>
-      <c r="G50" s="1"/>
-    </row>
-    <row r="51" s="7" customFormat="1" ht="15" customHeight="1" spans="1:7">
-      <c r="A51" s="109"/>
-      <c r="B51" s="1"/>
-      <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
-      <c r="E51" s="1"/>
-      <c r="F51" s="1"/>
-      <c r="G51" s="1"/>
+    <row r="48" s="56" customFormat="1" ht="15" customHeight="1" spans="1:7">
+      <c r="A48" s="64"/>
+      <c r="B48" s="57"/>
+      <c r="C48" s="57"/>
+      <c r="D48" s="57"/>
+      <c r="E48" s="57"/>
+      <c r="F48" s="57"/>
+      <c r="G48" s="57"/>
+    </row>
+    <row r="49" s="56" customFormat="1" ht="15" customHeight="1" spans="1:7">
+      <c r="A49" s="64"/>
+      <c r="B49" s="57"/>
+      <c r="C49" s="57"/>
+      <c r="D49" s="57"/>
+      <c r="E49" s="57"/>
+      <c r="F49" s="57"/>
+      <c r="G49" s="57"/>
+    </row>
+    <row r="50" s="56" customFormat="1" ht="15" customHeight="1" spans="1:7">
+      <c r="A50" s="64"/>
+      <c r="B50" s="57"/>
+      <c r="C50" s="57"/>
+      <c r="D50" s="57"/>
+      <c r="E50" s="57"/>
+      <c r="F50" s="57"/>
+      <c r="G50" s="57"/>
+    </row>
+    <row r="51" s="56" customFormat="1" ht="15" customHeight="1" spans="1:7">
+      <c r="A51" s="64"/>
+      <c r="B51" s="57"/>
+      <c r="C51" s="57"/>
+      <c r="D51" s="57"/>
+      <c r="E51" s="57"/>
+      <c r="F51" s="57"/>
+      <c r="G51" s="57"/>
     </row>
   </sheetData>
-  <mergeCells count="50">
+  <mergeCells count="51">
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="A2:G2"/>
     <mergeCell ref="C3:D3"/>
@@ -3890,6 +3698,7 @@
     <mergeCell ref="B29:C29"/>
     <mergeCell ref="D29:G29"/>
     <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:G30"/>
     <mergeCell ref="B31:G31"/>
     <mergeCell ref="B32:G32"/>
     <mergeCell ref="B33:G33"/>
@@ -3930,8 +3739,8 @@
   </sheetPr>
   <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27:G27"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29:G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelCol="7"/>
@@ -3940,7 +3749,7 @@
     <col min="2" max="2" width="16.5" style="7" customWidth="1"/>
     <col min="3" max="3" width="35.375" style="7" customWidth="1"/>
     <col min="4" max="4" width="13.25" style="7" customWidth="1"/>
-    <col min="5" max="5" width="15.625" style="7" customWidth="1"/>
+    <col min="5" max="5" width="19.2307692307692" style="7" customWidth="1"/>
     <col min="6" max="6" width="15.5" style="7" customWidth="1"/>
     <col min="7" max="7" width="26.625" style="7" customWidth="1"/>
     <col min="8" max="8" width="2.5" style="8" customWidth="1"/>
@@ -3970,14 +3779,14 @@
         <v>0</v>
       </c>
       <c r="D2" s="12"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="36" t="s">
+      <c r="E2" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="G2" s="12">
+      <c r="F2" s="12">
         <f>SC!G3</f>
         <v>0</v>
       </c>
+      <c r="G2" s="36"/>
       <c r="H2" s="37"/>
     </row>
     <row r="3" s="1" customFormat="1" ht="63" customHeight="1" spans="1:7">
@@ -3990,45 +3799,50 @@
         <v>0</v>
       </c>
       <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="36" t="s">
+      <c r="E3" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="G3" s="12">
+      <c r="F3" s="12">
         <f>SC!G4</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="4" s="1" customFormat="1" ht="19.5" customHeight="1" spans="1:8">
+      <c r="G3" s="36"/>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="28" customHeight="1" spans="1:8">
       <c r="A4" s="10"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="39" t="s">
+      <c r="B4" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="G4" s="12">
-        <f>SC!G5</f>
-        <v>0</v>
-      </c>
+      <c r="C4" s="12" t="str">
+        <f>SC!C5</f>
+        <v>/</v>
+      </c>
+      <c r="D4" s="12"/>
+      <c r="E4" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="F4" s="12">
+        <f>SC!F5</f>
+        <v>0</v>
+      </c>
+      <c r="G4" s="12"/>
       <c r="H4" s="37"/>
     </row>
     <row r="5" s="1" customFormat="1" customHeight="1" spans="1:8">
       <c r="A5" s="10"/>
       <c r="B5" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="C5" s="14" t="str">
+        <v>66</v>
+      </c>
+      <c r="C5" s="11" t="str">
         <f>SC!C6</f>
         <v>Smai Co., LTD</v>
       </c>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="40" t="s">
-        <v>66</v>
-      </c>
-      <c r="G5" s="41"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
       <c r="H5" s="37"/>
     </row>
     <row r="6" s="1" customFormat="1" ht="86.1" customHeight="1" spans="1:8">
@@ -4036,12 +3850,12 @@
       <c r="B6" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="C6" s="15">
+      <c r="C6" s="13">
         <f>SC!C7</f>
         <v>0</v>
       </c>
-      <c r="D6" s="15"/>
-      <c r="F6" s="42" t="str">
+      <c r="D6" s="13"/>
+      <c r="E6" s="39" t="str">
         <f>SC!E7</f>
         <v>Benificiary Bank
 CHINA CITIC BANK CHONGQING BRANCH
@@ -4050,366 +3864,374 @@
 Benificiary Account: （8111214013100727547）
 Bank Address:  NO. 5, WEST STREET, JIANGBEI CITY, JIANGBEI DISTRICT, CHONGQING</v>
       </c>
-      <c r="G6" s="43"/>
-      <c r="H6" s="44"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="42"/>
     </row>
     <row r="7" s="2" customFormat="1" ht="117.95" customHeight="1" spans="1:8">
       <c r="A7" s="10"/>
-      <c r="B7" s="11"/>
-      <c r="E7" s="45"/>
-      <c r="F7" s="46"/>
-      <c r="G7" s="47"/>
-      <c r="H7" s="44"/>
+      <c r="B7" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="C7" s="13">
+        <f>SC!C8</f>
+        <v>0</v>
+      </c>
+      <c r="D7" s="13"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="44"/>
+      <c r="G7" s="45"/>
+      <c r="H7" s="42"/>
     </row>
     <row r="8" ht="16.5" customHeight="1" spans="3:8">
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="G8" s="48"/>
-      <c r="H8" s="48"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="46"/>
     </row>
     <row r="9" ht="20.25" customHeight="1" spans="1:8">
-      <c r="A9" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
+      <c r="A9" s="15"/>
+      <c r="B9" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
       <c r="H9" s="5"/>
     </row>
     <row r="10" s="3" customFormat="1" ht="37.5" customHeight="1" spans="1:7">
-      <c r="A10" s="18">
+      <c r="A10" s="17">
         <v>1</v>
       </c>
-      <c r="B10" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="C10" s="20" t="s">
+      <c r="B10" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="D10" s="20" t="s">
+      <c r="C10" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="E10" s="20" t="s">
+      <c r="D10" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="F10" s="20" t="s">
+      <c r="E10" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="G10" s="49" t="s">
+      <c r="F10" s="19" t="s">
         <v>73</v>
       </c>
+      <c r="G10" s="47" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="11" s="3" customFormat="1" ht="60" customHeight="1" spans="1:7">
-      <c r="A11" s="18"/>
-      <c r="B11" s="21">
+      <c r="A11" s="17"/>
+      <c r="B11" s="20">
         <f>SC!B11</f>
         <v>0</v>
       </c>
-      <c r="C11" s="21">
+      <c r="C11" s="20">
         <f>SC!C11</f>
         <v>0</v>
       </c>
-      <c r="D11" s="21">
+      <c r="D11" s="20">
         <f>SC!D11</f>
         <v>0</v>
       </c>
-      <c r="E11" s="21">
+      <c r="E11" s="20">
         <f>SC!E11</f>
         <v>0</v>
       </c>
-      <c r="F11" s="50">
+      <c r="F11" s="48">
         <f>SC!F11</f>
         <v>0</v>
       </c>
-      <c r="G11" s="50">
+      <c r="G11" s="48">
         <f>SC!G11</f>
         <v>0</v>
       </c>
     </row>
     <row r="12" s="3" customFormat="1" ht="60" customHeight="1" spans="1:7">
-      <c r="A12" s="18"/>
-      <c r="B12" s="21">
+      <c r="A12" s="17"/>
+      <c r="B12" s="20">
         <f>SC!B12</f>
         <v>0</v>
       </c>
-      <c r="C12" s="21">
+      <c r="C12" s="20">
         <f>SC!C12</f>
         <v>0</v>
       </c>
-      <c r="D12" s="21">
+      <c r="D12" s="20">
         <f>SC!D12</f>
         <v>0</v>
       </c>
-      <c r="E12" s="21">
+      <c r="E12" s="20">
         <f>SC!E12</f>
         <v>0</v>
       </c>
-      <c r="F12" s="50">
+      <c r="F12" s="48">
         <f>SC!F12</f>
         <v>0</v>
       </c>
-      <c r="G12" s="50">
+      <c r="G12" s="48">
         <f>SC!G12</f>
         <v>0</v>
       </c>
     </row>
     <row r="13" s="3" customFormat="1" ht="60" customHeight="1" spans="1:7">
-      <c r="A13" s="18"/>
-      <c r="B13" s="21">
+      <c r="A13" s="17"/>
+      <c r="B13" s="20">
         <f>SC!B13</f>
         <v>0</v>
       </c>
-      <c r="C13" s="21">
+      <c r="C13" s="20">
         <f>SC!C13</f>
         <v>0</v>
       </c>
-      <c r="D13" s="21">
+      <c r="D13" s="20">
         <f>SC!D13</f>
         <v>0</v>
       </c>
-      <c r="E13" s="21">
+      <c r="E13" s="20">
         <f>SC!E13</f>
         <v>0</v>
       </c>
-      <c r="F13" s="50">
+      <c r="F13" s="48">
         <f>SC!F13</f>
         <v>0</v>
       </c>
-      <c r="G13" s="50">
+      <c r="G13" s="48">
         <f>SC!G13</f>
         <v>0</v>
       </c>
     </row>
     <row r="14" s="3" customFormat="1" ht="60" customHeight="1" spans="1:7">
-      <c r="A14" s="18"/>
-      <c r="B14" s="21">
+      <c r="A14" s="17"/>
+      <c r="B14" s="20">
         <f>SC!B14</f>
         <v>0</v>
       </c>
-      <c r="C14" s="21">
+      <c r="C14" s="20">
         <f>SC!C14</f>
         <v>0</v>
       </c>
-      <c r="D14" s="21">
+      <c r="D14" s="20">
         <f>SC!D14</f>
         <v>0</v>
       </c>
-      <c r="E14" s="21">
+      <c r="E14" s="20">
         <f>SC!E14</f>
         <v>0</v>
       </c>
-      <c r="F14" s="50">
+      <c r="F14" s="48">
         <f>SC!F14</f>
         <v>0</v>
       </c>
-      <c r="G14" s="50">
+      <c r="G14" s="48">
         <f>SC!G14</f>
         <v>0</v>
       </c>
     </row>
     <row r="15" s="3" customFormat="1" ht="60" customHeight="1" spans="1:7">
-      <c r="A15" s="18"/>
-      <c r="B15" s="21">
+      <c r="A15" s="17"/>
+      <c r="B15" s="20">
         <f>SC!B15</f>
         <v>0</v>
       </c>
-      <c r="C15" s="21">
+      <c r="C15" s="20">
         <f>SC!C15</f>
         <v>0</v>
       </c>
-      <c r="D15" s="21">
+      <c r="D15" s="20">
         <f>SC!D15</f>
         <v>0</v>
       </c>
-      <c r="E15" s="21">
+      <c r="E15" s="20">
         <f>SC!E15</f>
         <v>0</v>
       </c>
-      <c r="F15" s="50">
+      <c r="F15" s="48">
         <f>SC!F15</f>
         <v>0</v>
       </c>
-      <c r="G15" s="50">
+      <c r="G15" s="48">
         <f>SC!G15</f>
         <v>0</v>
       </c>
     </row>
     <row r="16" s="3" customFormat="1" ht="60" customHeight="1" spans="1:7">
-      <c r="A16" s="18"/>
-      <c r="B16" s="21">
+      <c r="A16" s="17"/>
+      <c r="B16" s="20">
         <f>SC!B16</f>
         <v>0</v>
       </c>
-      <c r="C16" s="21">
+      <c r="C16" s="20">
         <f>SC!C16</f>
         <v>0</v>
       </c>
-      <c r="D16" s="21">
+      <c r="D16" s="20">
         <f>SC!D16</f>
         <v>0</v>
       </c>
-      <c r="E16" s="21">
+      <c r="E16" s="20">
         <f>SC!E16</f>
         <v>0</v>
       </c>
-      <c r="F16" s="50">
+      <c r="F16" s="48">
         <f>SC!F16</f>
         <v>0</v>
       </c>
-      <c r="G16" s="50">
+      <c r="G16" s="48">
         <f>SC!G16</f>
         <v>0</v>
       </c>
     </row>
     <row r="17" s="3" customFormat="1" ht="60" customHeight="1" spans="1:7">
-      <c r="A17" s="18"/>
-      <c r="B17" s="21">
+      <c r="A17" s="17"/>
+      <c r="B17" s="20">
         <f>SC!B16</f>
         <v>0</v>
       </c>
-      <c r="C17" s="21">
+      <c r="C17" s="20">
         <f>SC!C16</f>
         <v>0</v>
       </c>
-      <c r="D17" s="21">
+      <c r="D17" s="20">
         <f>SC!D16</f>
         <v>0</v>
       </c>
-      <c r="E17" s="21">
+      <c r="E17" s="20">
         <f>SC!E16</f>
         <v>0</v>
       </c>
-      <c r="F17" s="50">
+      <c r="F17" s="48">
         <f>SC!F16</f>
         <v>0</v>
       </c>
-      <c r="G17" s="50">
+      <c r="G17" s="48">
         <f>SC!G16</f>
         <v>0</v>
       </c>
     </row>
     <row r="18" s="3" customFormat="1" ht="60" customHeight="1" spans="1:7">
-      <c r="A18" s="18"/>
-      <c r="B18" s="21">
+      <c r="A18" s="17"/>
+      <c r="B18" s="20">
         <f>SC!B17</f>
         <v>0</v>
       </c>
-      <c r="C18" s="21">
+      <c r="C18" s="20">
         <f>SC!C17</f>
         <v>0</v>
       </c>
-      <c r="D18" s="21">
+      <c r="D18" s="20">
         <f>SC!D17</f>
         <v>0</v>
       </c>
-      <c r="E18" s="21">
+      <c r="E18" s="20">
         <f>SC!E17</f>
         <v>0</v>
       </c>
-      <c r="F18" s="50">
+      <c r="F18" s="48">
         <f>SC!F17</f>
         <v>0</v>
       </c>
-      <c r="G18" s="50">
+      <c r="G18" s="48">
         <f>SC!G17</f>
         <v>0</v>
       </c>
     </row>
     <row r="19" s="3" customFormat="1" ht="60" customHeight="1" spans="1:7">
-      <c r="A19" s="18"/>
-      <c r="B19" s="21">
+      <c r="A19" s="17"/>
+      <c r="B19" s="20">
         <f>SC!B18</f>
         <v>0</v>
       </c>
-      <c r="C19" s="21">
+      <c r="C19" s="20">
         <f>SC!C18</f>
         <v>0</v>
       </c>
-      <c r="D19" s="21">
+      <c r="D19" s="20">
         <f>SC!D18</f>
         <v>0</v>
       </c>
-      <c r="E19" s="21">
+      <c r="E19" s="20">
         <f>SC!E18</f>
         <v>0</v>
       </c>
-      <c r="F19" s="50">
+      <c r="F19" s="48">
         <f>SC!F18</f>
         <v>0</v>
       </c>
-      <c r="G19" s="50">
+      <c r="G19" s="48">
         <f>SC!G18</f>
         <v>0</v>
       </c>
     </row>
     <row r="20" s="3" customFormat="1" ht="60" customHeight="1" spans="1:7">
-      <c r="A20" s="18"/>
-      <c r="B20" s="21">
+      <c r="A20" s="17"/>
+      <c r="B20" s="20">
         <f>SC!B19</f>
         <v>0</v>
       </c>
-      <c r="C20" s="21">
+      <c r="C20" s="20">
         <f>SC!C19</f>
         <v>0</v>
       </c>
-      <c r="D20" s="21">
+      <c r="D20" s="20">
         <f>SC!D19</f>
         <v>0</v>
       </c>
-      <c r="E20" s="21">
+      <c r="E20" s="20">
         <f>SC!E19</f>
         <v>0</v>
       </c>
-      <c r="F20" s="50">
+      <c r="F20" s="48">
         <f>SC!F19</f>
         <v>0</v>
       </c>
-      <c r="G20" s="50">
+      <c r="G20" s="48">
         <f>SC!G19</f>
         <v>0</v>
       </c>
     </row>
     <row r="21" s="4" customFormat="1" ht="30" customHeight="1" spans="1:7">
-      <c r="A21" s="18"/>
-      <c r="B21" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="C21" s="23"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="51"/>
-      <c r="F21" s="52">
+      <c r="A21" s="17"/>
+      <c r="B21" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="49"/>
+      <c r="F21" s="50">
         <f>SC!F22</f>
         <v>0</v>
       </c>
-      <c r="G21" s="53">
+      <c r="G21" s="51">
         <f>SC!G22</f>
         <v>0</v>
       </c>
     </row>
     <row r="22" s="4" customFormat="1" ht="30" customHeight="1" spans="1:7">
-      <c r="A22" s="18"/>
-      <c r="B22" s="24">
+      <c r="A22" s="17"/>
+      <c r="B22" s="23">
         <f>SC!B23</f>
         <v>0</v>
       </c>
-      <c r="C22" s="25"/>
-      <c r="D22" s="25"/>
-      <c r="E22" s="25"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="54"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="52"/>
     </row>
     <row r="23" s="5" customFormat="1" ht="36" customHeight="1" spans="1:7">
-      <c r="A23" s="26">
+      <c r="A23" s="25">
         <v>2</v>
       </c>
-      <c r="B23" s="27" t="str">
+      <c r="B23" s="26" t="str">
         <f>SC!B24</f>
         <v>支付条款 TERMS OF PAYMENT</v>
       </c>
-      <c r="C23" s="27"/>
+      <c r="C23" s="26"/>
       <c r="D23" s="27">
         <f>SC!D24</f>
         <v>0</v>
@@ -4434,7 +4256,7 @@
       <c r="E24" s="27"/>
       <c r="F24" s="27"/>
       <c r="G24" s="27"/>
-      <c r="H24" s="55"/>
+      <c r="H24" s="53"/>
     </row>
     <row r="25" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:8">
       <c r="A25" s="28">
@@ -4452,48 +4274,57 @@
       <c r="E25" s="27"/>
       <c r="F25" s="27"/>
       <c r="G25" s="27"/>
-      <c r="H25" s="56"/>
+      <c r="H25" s="54"/>
     </row>
     <row r="26" s="1" customFormat="1" ht="38.1" customHeight="1" spans="1:8">
       <c r="A26" s="30" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B26" s="31" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C26" s="31"/>
-      <c r="D26" s="31"/>
-      <c r="E26" s="31"/>
-      <c r="F26" s="31"/>
-      <c r="G26" s="31"/>
-      <c r="H26" s="56"/>
+      <c r="D26" s="27" t="str">
+        <f>SC!D27</f>
+        <v>THE FREIGHT FORWARDER INFORMATION IS PROVIDED BY THE BUYER, AND THE LATEST SHIPMENT DATE IS TWO MONTHS AFTER THE COMPLETION OF DELIVERY</v>
+      </c>
+      <c r="E26" s="27"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="54"/>
     </row>
     <row r="27" ht="20.1" customHeight="1" spans="1:8">
       <c r="A27" s="32" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B27" s="33" t="s">
-        <v>78</v>
-      </c>
-      <c r="C27" s="33"/>
-      <c r="D27" s="33"/>
-      <c r="E27" s="33"/>
-      <c r="F27" s="33"/>
-      <c r="G27" s="33"/>
-      <c r="H27" s="57"/>
+        <v>79</v>
+      </c>
+      <c r="C27" s="3"/>
+      <c r="D27" s="27" t="str">
+        <f>SC!D28</f>
+        <v>允许 ALLOWED</v>
+      </c>
+      <c r="E27" s="27"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="55"/>
     </row>
     <row r="28" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:8">
       <c r="A28" s="32" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B28" s="33" t="s">
-        <v>80</v>
-      </c>
-      <c r="C28" s="33"/>
-      <c r="D28" s="33"/>
-      <c r="E28" s="33"/>
-      <c r="F28" s="33"/>
-      <c r="G28" s="33"/>
+        <v>81</v>
+      </c>
+      <c r="C28" s="3"/>
+      <c r="D28" s="27" t="str">
+        <f>SC!D29</f>
+        <v>允许 ALLOWED</v>
+      </c>
+      <c r="E28" s="27"/>
+      <c r="F28" s="27"/>
+      <c r="G28" s="27"/>
       <c r="H28" s="37"/>
     </row>
     <row r="29" ht="20.1" customHeight="1" spans="1:7">
@@ -4501,19 +4332,30 @@
         <v>4</v>
       </c>
       <c r="B29" s="31" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C29" s="31"/>
-      <c r="D29" s="31"/>
+      <c r="D29" s="35" t="s">
+        <v>83</v>
+      </c>
       <c r="E29" s="31"/>
       <c r="F29" s="31"/>
       <c r="G29" s="31"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="30">
     <mergeCell ref="A1:H1"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="A9:G9"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="B9:G9"/>
     <mergeCell ref="B21:E21"/>
     <mergeCell ref="B22:G22"/>
     <mergeCell ref="B23:C23"/>
@@ -4522,15 +4364,19 @@
     <mergeCell ref="D24:G24"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="D25:G25"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="B27:G27"/>
-    <mergeCell ref="B28:G28"/>
-    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:G26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:G27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:G28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:G29"/>
     <mergeCell ref="A10:A22"/>
-    <mergeCell ref="F6:G7"/>
+    <mergeCell ref="E6:G7"/>
   </mergeCells>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="8" scale="67" fitToHeight="0" orientation="portrait"/>
+  <pageSetup paperSize="8" scale="65" fitToHeight="0" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/api/api/template.xlsx
+++ b/api/api/template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="15160" activeTab="1"/>
+    <workbookView windowHeight="15160"/>
   </bookViews>
   <sheets>
     <sheet name="SC" sheetId="1" r:id="rId1"/>
@@ -117,6 +117,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>买方</t>
     </r>
     <r>
@@ -214,6 +220,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>地点</t>
     </r>
     <r>
@@ -251,6 +263,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
       <t>开户行</t>
     </r>
     <r>
@@ -269,6 +287,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">Benificiary Bank
 CHINA CITIC BANK CHONGQING BRANCH
 Swift Code:  CIBKCNBJ400
@@ -311,6 +334,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>买卖双方同意按下列条款由卖方出售，买方购进下列货物：</t>
     </r>
     <r>
@@ -596,6 +624,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>分批装运</t>
     </r>
     <r>
@@ -610,6 +644,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
       <t>允许</t>
     </r>
     <r>
@@ -631,6 +670,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>转运</t>
     </r>
     <r>
@@ -668,6 +713,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
       <t>检验</t>
     </r>
     <r>
@@ -682,6 +733,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>卖方应在发货前对货物进行仔细检验，并保证货物符合本合同所规定的质量、规格和数量。</t>
     </r>
     <r>
@@ -727,6 +783,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>对于本公司所指贸易产品的技术标准及市场特殊要求，双方将在本合同或合同附件中予以列明。若未列明，则按中国国家标准执行。</t>
     </r>
     <r>
@@ -772,6 +833,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Times New Roman Bold"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">A. </t>
     </r>
     <r>
@@ -965,6 +1032,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Times New Roman Bold"/>
+        <charset val="134"/>
+      </rPr>
       <t>B.</t>
     </r>
     <r>
@@ -1026,6 +1099,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>由于不可抗力因素，使卖方不能履行合同或者延期履行合同，卖方无须承违约责任，但卖方必须以书面形式通知买方。如果买方提出要求，卖方应向买方提供证明不可抗力发生证据。</t>
     </r>
     <r>
@@ -1105,6 +1183,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Times New Roman Bold"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">A. </t>
     </r>
     <r>
@@ -1136,6 +1220,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Times New Roman Bold"/>
+        <charset val="134"/>
+      </rPr>
       <t>B.</t>
     </r>
     <r>
@@ -1188,6 +1278,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>因执行本合同所发生的与本合同有关的一切争议，应通过双方友好协商，予以解决。如果协商不能解决问题，则应提交中国国际经济贸易仲裁委员会西南分会，仲裁时适用中国法律。该仲裁委员会决定是终局的，对双方均有约束力。有关仲裁费用，除法律另有规定外，由败诉方承担。</t>
     </r>
     <r>
@@ -1258,6 +1353,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
       <t>买方签字</t>
     </r>
     <r>
@@ -1272,6 +1373,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>卖方签字</t>
     </r>
     <r>
@@ -1348,6 +1455,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
       <t>分批装运</t>
     </r>
     <r>
@@ -1365,6 +1478,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
       <t>转运</t>
     </r>
     <r>
@@ -1379,6 +1498,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t>PI</t>
     </r>
     <r>
@@ -2302,7 +2427,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="122">
+  <cellXfs count="121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2483,9 +2608,6 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -3023,7 +3145,7 @@
   </sheetPr>
   <dimension ref="A1:I51"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="121" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="121" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="E5" sqref="E5:F5"/>
     </sheetView>
   </sheetViews>
@@ -3041,596 +3163,585 @@
     <col min="11" max="16384" width="9" style="60"/>
   </cols>
   <sheetData>
-    <row r="1" ht="43" customHeight="1" spans="1:7">
-      <c r="A1" s="61"/>
-      <c r="B1" s="62" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
+    <row r="1" ht="43" customHeight="1" spans="2:7">
+      <c r="B1" s="61" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
     </row>
     <row r="2" s="56" customFormat="1" ht="50.1" customHeight="1" spans="1:8">
-      <c r="A2" s="63" t="s">
+      <c r="A2" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="105"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="104"/>
     </row>
     <row r="3" s="57" customFormat="1" ht="39.95" customHeight="1" spans="1:7">
-      <c r="A3" s="64"/>
-      <c r="B3" s="65" t="s">
+      <c r="A3" s="63"/>
+      <c r="B3" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="66"/>
-      <c r="D3" s="67"/>
-      <c r="E3" s="68" t="s">
+      <c r="C3" s="65"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="104"/>
-      <c r="G3" s="106"/>
+      <c r="F3" s="103"/>
+      <c r="G3" s="105"/>
     </row>
     <row r="4" s="57" customFormat="1" ht="66" customHeight="1" spans="1:7">
-      <c r="A4" s="64"/>
-      <c r="B4" s="68" t="s">
+      <c r="A4" s="63"/>
+      <c r="B4" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="68" t="s">
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="104"/>
-      <c r="G4" s="107"/>
+      <c r="F4" s="103"/>
+      <c r="G4" s="106"/>
     </row>
     <row r="5" s="57" customFormat="1" ht="20.25" customHeight="1" spans="1:7">
-      <c r="A5" s="64"/>
-      <c r="B5" s="68" t="s">
+      <c r="A5" s="63"/>
+      <c r="B5" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="70" t="s">
+      <c r="C5" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="70"/>
-      <c r="E5" s="65" t="s">
+      <c r="D5" s="69"/>
+      <c r="E5" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="104"/>
-      <c r="G5" s="108"/>
+      <c r="F5" s="103"/>
+      <c r="G5" s="107"/>
     </row>
     <row r="6" s="57" customFormat="1" ht="24.75" customHeight="1" spans="1:7">
-      <c r="A6" s="64"/>
-      <c r="B6" s="68" t="s">
+      <c r="A6" s="63"/>
+      <c r="B6" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="71" t="s">
+      <c r="C6" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="71"/>
-      <c r="E6" s="109" t="s">
+      <c r="D6" s="70"/>
+      <c r="E6" s="108" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="62"/>
-      <c r="G6" s="110"/>
+      <c r="F6" s="61"/>
+      <c r="G6" s="109"/>
     </row>
     <row r="7" s="57" customFormat="1" ht="81" customHeight="1" spans="1:7">
-      <c r="A7" s="72" t="s">
+      <c r="A7" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="68" t="s">
+      <c r="B7" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="73"/>
-      <c r="D7" s="73"/>
-      <c r="E7" s="111" t="s">
+      <c r="C7" s="72"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="110" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="112"/>
-      <c r="G7" s="112"/>
+      <c r="F7" s="111"/>
+      <c r="G7" s="111"/>
     </row>
     <row r="8" s="58" customFormat="1" ht="62" customHeight="1" spans="1:7">
-      <c r="A8" s="64"/>
-      <c r="B8" s="68" t="s">
+      <c r="A8" s="63"/>
+      <c r="B8" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="67"/>
-      <c r="D8" s="67"/>
-      <c r="E8" s="112"/>
-      <c r="F8" s="112"/>
-      <c r="G8" s="112"/>
+      <c r="C8" s="66"/>
+      <c r="D8" s="66"/>
+      <c r="E8" s="111"/>
+      <c r="F8" s="111"/>
+      <c r="G8" s="111"/>
     </row>
     <row r="9" s="57" customFormat="1" ht="34.5" customHeight="1" spans="1:7">
-      <c r="A9" s="74"/>
-      <c r="B9" s="75" t="s">
+      <c r="A9" s="73"/>
+      <c r="B9" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="73"/>
-      <c r="D9" s="73"/>
-      <c r="E9" s="73"/>
-      <c r="F9" s="73"/>
-      <c r="G9" s="73"/>
+      <c r="C9" s="72"/>
+      <c r="D9" s="72"/>
+      <c r="E9" s="72"/>
+      <c r="F9" s="72"/>
+      <c r="G9" s="72"/>
     </row>
     <row r="10" s="59" customFormat="1" ht="71.1" customHeight="1" spans="1:9">
-      <c r="A10" s="76">
+      <c r="A10" s="75">
         <v>1</v>
       </c>
-      <c r="B10" s="77" t="s">
+      <c r="B10" s="76" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="77" t="s">
+      <c r="C10" s="76" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="77" t="s">
+      <c r="D10" s="76" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="77" t="s">
+      <c r="E10" s="76" t="s">
         <v>18</v>
       </c>
-      <c r="F10" s="77" t="s">
+      <c r="F10" s="76" t="s">
         <v>19</v>
       </c>
-      <c r="G10" s="113" t="s">
+      <c r="G10" s="112" t="s">
         <v>20</v>
       </c>
-      <c r="I10" s="121"/>
+      <c r="I10" s="120"/>
     </row>
     <row r="11" s="59" customFormat="1" ht="48.95" customHeight="1" spans="1:9">
-      <c r="A11" s="76"/>
-      <c r="B11" s="78"/>
-      <c r="C11" s="79"/>
-      <c r="D11" s="79"/>
-      <c r="E11" s="79"/>
-      <c r="F11" s="114"/>
-      <c r="G11" s="114"/>
-      <c r="H11" s="59"/>
-      <c r="I11" s="121"/>
+      <c r="A11" s="75"/>
+      <c r="B11" s="77"/>
+      <c r="C11" s="78"/>
+      <c r="D11" s="78"/>
+      <c r="E11" s="78"/>
+      <c r="F11" s="113"/>
+      <c r="G11" s="113"/>
+      <c r="I11" s="120"/>
     </row>
     <row r="12" s="59" customFormat="1" ht="42" customHeight="1" spans="1:9">
-      <c r="A12" s="76"/>
-      <c r="B12" s="80"/>
-      <c r="C12" s="80"/>
-      <c r="D12" s="79"/>
-      <c r="E12" s="79"/>
-      <c r="F12" s="114"/>
-      <c r="G12" s="114"/>
-      <c r="H12" s="59"/>
-      <c r="I12" s="121"/>
+      <c r="A12" s="75"/>
+      <c r="B12" s="79"/>
+      <c r="C12" s="79"/>
+      <c r="D12" s="78"/>
+      <c r="E12" s="78"/>
+      <c r="F12" s="113"/>
+      <c r="G12" s="113"/>
+      <c r="I12" s="120"/>
     </row>
     <row r="13" s="59" customFormat="1" ht="42" customHeight="1" spans="1:9">
-      <c r="A13" s="76"/>
-      <c r="B13" s="80"/>
-      <c r="C13" s="80"/>
-      <c r="D13" s="79"/>
-      <c r="E13" s="79"/>
-      <c r="F13" s="114"/>
-      <c r="G13" s="114"/>
-      <c r="H13" s="59"/>
-      <c r="I13" s="121"/>
+      <c r="A13" s="75"/>
+      <c r="B13" s="79"/>
+      <c r="C13" s="79"/>
+      <c r="D13" s="78"/>
+      <c r="E13" s="78"/>
+      <c r="F13" s="113"/>
+      <c r="G13" s="113"/>
+      <c r="I13" s="120"/>
     </row>
     <row r="14" s="59" customFormat="1" ht="42" customHeight="1" spans="1:9">
-      <c r="A14" s="76"/>
-      <c r="B14" s="80"/>
-      <c r="C14" s="80"/>
-      <c r="D14" s="79"/>
-      <c r="E14" s="79"/>
-      <c r="F14" s="114"/>
-      <c r="G14" s="114"/>
-      <c r="H14" s="59"/>
-      <c r="I14" s="121"/>
+      <c r="A14" s="75"/>
+      <c r="B14" s="79"/>
+      <c r="C14" s="79"/>
+      <c r="D14" s="78"/>
+      <c r="E14" s="78"/>
+      <c r="F14" s="113"/>
+      <c r="G14" s="113"/>
+      <c r="I14" s="120"/>
     </row>
     <row r="15" s="59" customFormat="1" ht="42" customHeight="1" spans="1:9">
-      <c r="A15" s="76"/>
-      <c r="B15" s="80"/>
-      <c r="C15" s="80"/>
-      <c r="D15" s="79"/>
-      <c r="E15" s="79"/>
-      <c r="F15" s="114"/>
-      <c r="G15" s="114"/>
-      <c r="H15" s="59"/>
-      <c r="I15" s="121"/>
+      <c r="A15" s="75"/>
+      <c r="B15" s="79"/>
+      <c r="C15" s="79"/>
+      <c r="D15" s="78"/>
+      <c r="E15" s="78"/>
+      <c r="F15" s="113"/>
+      <c r="G15" s="113"/>
+      <c r="I15" s="120"/>
     </row>
     <row r="16" s="59" customFormat="1" ht="42" customHeight="1" spans="1:9">
-      <c r="A16" s="76"/>
-      <c r="B16" s="80"/>
-      <c r="C16" s="80"/>
-      <c r="D16" s="79"/>
-      <c r="E16" s="79"/>
-      <c r="F16" s="114"/>
-      <c r="G16" s="114"/>
-      <c r="H16" s="59"/>
-      <c r="I16" s="121"/>
+      <c r="A16" s="75"/>
+      <c r="B16" s="79"/>
+      <c r="C16" s="79"/>
+      <c r="D16" s="78"/>
+      <c r="E16" s="78"/>
+      <c r="F16" s="113"/>
+      <c r="G16" s="113"/>
+      <c r="I16" s="120"/>
     </row>
     <row r="17" s="59" customFormat="1" ht="42" customHeight="1" spans="1:9">
-      <c r="A17" s="76"/>
-      <c r="B17" s="80"/>
-      <c r="C17" s="80"/>
-      <c r="D17" s="79"/>
-      <c r="E17" s="79"/>
-      <c r="F17" s="114"/>
-      <c r="G17" s="114"/>
-      <c r="H17" s="59"/>
-      <c r="I17" s="121"/>
+      <c r="A17" s="75"/>
+      <c r="B17" s="79"/>
+      <c r="C17" s="79"/>
+      <c r="D17" s="78"/>
+      <c r="E17" s="78"/>
+      <c r="F17" s="113"/>
+      <c r="G17" s="113"/>
+      <c r="I17" s="120"/>
     </row>
     <row r="18" s="59" customFormat="1" ht="42" customHeight="1" spans="1:9">
-      <c r="A18" s="76"/>
-      <c r="B18" s="80"/>
-      <c r="C18" s="80"/>
-      <c r="D18" s="79"/>
-      <c r="E18" s="79"/>
-      <c r="F18" s="114"/>
-      <c r="G18" s="114"/>
-      <c r="H18" s="59"/>
-      <c r="I18" s="121"/>
+      <c r="A18" s="75"/>
+      <c r="B18" s="79"/>
+      <c r="C18" s="79"/>
+      <c r="D18" s="78"/>
+      <c r="E18" s="78"/>
+      <c r="F18" s="113"/>
+      <c r="G18" s="113"/>
+      <c r="I18" s="120"/>
     </row>
     <row r="19" s="59" customFormat="1" ht="42" customHeight="1" spans="1:9">
-      <c r="A19" s="76"/>
-      <c r="B19" s="80"/>
-      <c r="C19" s="80"/>
-      <c r="D19" s="79"/>
-      <c r="E19" s="79"/>
-      <c r="F19" s="114"/>
-      <c r="G19" s="114"/>
-      <c r="H19" s="59"/>
-      <c r="I19" s="121"/>
+      <c r="A19" s="75"/>
+      <c r="B19" s="79"/>
+      <c r="C19" s="79"/>
+      <c r="D19" s="78"/>
+      <c r="E19" s="78"/>
+      <c r="F19" s="113"/>
+      <c r="G19" s="113"/>
+      <c r="I19" s="120"/>
     </row>
     <row r="20" s="59" customFormat="1" ht="42" customHeight="1" spans="1:9">
-      <c r="A20" s="76"/>
-      <c r="B20" s="80"/>
-      <c r="C20" s="80"/>
-      <c r="D20" s="79"/>
-      <c r="E20" s="79"/>
-      <c r="F20" s="114"/>
-      <c r="G20" s="114"/>
-      <c r="H20" s="59"/>
-      <c r="I20" s="121"/>
+      <c r="A20" s="75"/>
+      <c r="B20" s="79"/>
+      <c r="C20" s="79"/>
+      <c r="D20" s="78"/>
+      <c r="E20" s="78"/>
+      <c r="F20" s="113"/>
+      <c r="G20" s="113"/>
+      <c r="I20" s="120"/>
     </row>
     <row r="21" s="59" customFormat="1" ht="42" customHeight="1" spans="1:9">
-      <c r="A21" s="76"/>
-      <c r="B21" s="80" t="s">
+      <c r="A21" s="75"/>
+      <c r="B21" s="79" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="80"/>
-      <c r="D21" s="79"/>
-      <c r="E21" s="79"/>
-      <c r="F21" s="115" t="s">
+      <c r="C21" s="79"/>
+      <c r="D21" s="78"/>
+      <c r="E21" s="78"/>
+      <c r="F21" s="114" t="s">
         <v>22</v>
       </c>
-      <c r="G21" s="114">
+      <c r="G21" s="113">
         <f>SUM(G11:G20)</f>
         <v>0</v>
       </c>
-      <c r="I21" s="121"/>
+      <c r="I21" s="120"/>
     </row>
     <row r="22" s="57" customFormat="1" ht="40" customHeight="1" spans="1:7">
-      <c r="A22" s="81"/>
-      <c r="B22" s="80" t="s">
+      <c r="A22" s="80"/>
+      <c r="B22" s="79" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="80"/>
-      <c r="D22" s="79"/>
-      <c r="E22" s="79"/>
-      <c r="F22" s="116"/>
-      <c r="G22" s="117">
+      <c r="C22" s="79"/>
+      <c r="D22" s="78"/>
+      <c r="E22" s="78"/>
+      <c r="F22" s="115"/>
+      <c r="G22" s="116">
         <f>G21</f>
         <v>0</v>
       </c>
     </row>
     <row r="23" s="57" customFormat="1" ht="32.45" customHeight="1" spans="1:7">
-      <c r="A23" s="81"/>
-      <c r="B23" s="82"/>
-      <c r="C23" s="83"/>
-      <c r="D23" s="83"/>
-      <c r="E23" s="83"/>
-      <c r="F23" s="118"/>
-      <c r="G23" s="119"/>
+      <c r="A23" s="80"/>
+      <c r="B23" s="81"/>
+      <c r="C23" s="82"/>
+      <c r="D23" s="82"/>
+      <c r="E23" s="82"/>
+      <c r="F23" s="117"/>
+      <c r="G23" s="118"/>
     </row>
     <row r="24" s="57" customFormat="1" ht="33.95" customHeight="1" spans="1:7">
-      <c r="A24" s="81">
+      <c r="A24" s="80">
         <v>2</v>
       </c>
-      <c r="B24" s="84" t="s">
+      <c r="B24" s="83" t="s">
         <v>24</v>
       </c>
-      <c r="C24" s="84"/>
-      <c r="D24" s="85"/>
-      <c r="E24" s="85"/>
-      <c r="F24" s="85"/>
-      <c r="G24" s="85"/>
+      <c r="C24" s="83"/>
+      <c r="D24" s="84"/>
+      <c r="E24" s="84"/>
+      <c r="F24" s="84"/>
+      <c r="G24" s="84"/>
     </row>
     <row r="25" s="57" customFormat="1" ht="18" customHeight="1" spans="1:7">
-      <c r="A25" s="86" t="s">
+      <c r="A25" s="85" t="s">
         <v>25</v>
       </c>
-      <c r="B25" s="87" t="s">
+      <c r="B25" s="86" t="s">
         <v>26</v>
       </c>
-      <c r="C25" s="87"/>
-      <c r="D25" s="88"/>
-      <c r="E25" s="88"/>
-      <c r="F25" s="88"/>
-      <c r="G25" s="88"/>
+      <c r="C25" s="86"/>
+      <c r="D25" s="87"/>
+      <c r="E25" s="87"/>
+      <c r="F25" s="87"/>
+      <c r="G25" s="87"/>
     </row>
     <row r="26" s="57" customFormat="1" ht="23.1" customHeight="1" spans="1:7">
-      <c r="A26" s="76">
+      <c r="A26" s="75">
         <v>3.2</v>
       </c>
-      <c r="B26" s="87" t="s">
+      <c r="B26" s="86" t="s">
         <v>27</v>
       </c>
-      <c r="C26" s="87"/>
-      <c r="D26" s="88"/>
-      <c r="E26" s="88"/>
-      <c r="F26" s="88"/>
-      <c r="G26" s="88"/>
+      <c r="C26" s="86"/>
+      <c r="D26" s="87"/>
+      <c r="E26" s="87"/>
+      <c r="F26" s="87"/>
+      <c r="G26" s="87"/>
     </row>
     <row r="27" s="57" customFormat="1" ht="56" customHeight="1" spans="1:7">
-      <c r="A27" s="68">
+      <c r="A27" s="67">
         <v>3.3</v>
       </c>
-      <c r="B27" s="89" t="s">
+      <c r="B27" s="88" t="s">
         <v>28</v>
       </c>
-      <c r="C27" s="89"/>
+      <c r="C27" s="88"/>
       <c r="D27" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="E27" s="73"/>
-      <c r="F27" s="73"/>
-      <c r="G27" s="73"/>
+      <c r="E27" s="72"/>
+      <c r="F27" s="72"/>
+      <c r="G27" s="72"/>
     </row>
     <row r="28" s="57" customFormat="1" ht="23.1" customHeight="1" spans="1:7">
-      <c r="A28" s="68">
+      <c r="A28" s="67">
         <v>3.4</v>
       </c>
-      <c r="B28" s="90" t="s">
+      <c r="B28" s="89" t="s">
         <v>30</v>
       </c>
-      <c r="C28" s="87"/>
-      <c r="D28" s="91" t="s">
+      <c r="C28" s="86"/>
+      <c r="D28" s="90" t="s">
         <v>31</v>
       </c>
-      <c r="E28" s="88"/>
-      <c r="F28" s="88"/>
-      <c r="G28" s="88"/>
+      <c r="E28" s="87"/>
+      <c r="F28" s="87"/>
+      <c r="G28" s="87"/>
     </row>
     <row r="29" s="57" customFormat="1" ht="23.1" customHeight="1" spans="1:7">
-      <c r="A29" s="68">
+      <c r="A29" s="67">
         <v>3.5</v>
       </c>
-      <c r="B29" s="90" t="s">
+      <c r="B29" s="89" t="s">
         <v>32</v>
       </c>
-      <c r="C29" s="87"/>
-      <c r="D29" s="91" t="s">
+      <c r="C29" s="86"/>
+      <c r="D29" s="90" t="s">
         <v>31</v>
       </c>
-      <c r="E29" s="88"/>
-      <c r="F29" s="88"/>
-      <c r="G29" s="88"/>
+      <c r="E29" s="87"/>
+      <c r="F29" s="87"/>
+      <c r="G29" s="87"/>
     </row>
     <row r="30" s="57" customFormat="1" ht="20" customHeight="1" spans="1:7">
-      <c r="A30" s="92">
+      <c r="A30" s="91">
         <v>4</v>
       </c>
-      <c r="B30" s="93" t="s">
+      <c r="B30" s="92" t="s">
         <v>33</v>
       </c>
-      <c r="C30" s="93"/>
-      <c r="D30" s="94"/>
-      <c r="E30" s="94"/>
-      <c r="F30" s="94"/>
-      <c r="G30" s="94"/>
+      <c r="C30" s="92"/>
+      <c r="D30" s="93"/>
+      <c r="E30" s="93"/>
+      <c r="F30" s="93"/>
+      <c r="G30" s="93"/>
     </row>
     <row r="31" s="57" customFormat="1" ht="18" customHeight="1" spans="1:7">
-      <c r="A31" s="86" t="s">
+      <c r="A31" s="85" t="s">
         <v>34</v>
       </c>
-      <c r="B31" s="95" t="s">
+      <c r="B31" s="94" t="s">
         <v>35</v>
       </c>
-      <c r="C31" s="87"/>
-      <c r="D31" s="87"/>
-      <c r="E31" s="87"/>
-      <c r="F31" s="87"/>
-      <c r="G31" s="87"/>
+      <c r="C31" s="86"/>
+      <c r="D31" s="86"/>
+      <c r="E31" s="86"/>
+      <c r="F31" s="86"/>
+      <c r="G31" s="86"/>
     </row>
     <row r="32" s="57" customFormat="1" ht="56" customHeight="1" spans="1:7">
-      <c r="A32" s="92"/>
-      <c r="B32" s="75" t="s">
+      <c r="A32" s="91"/>
+      <c r="B32" s="74" t="s">
         <v>36</v>
       </c>
-      <c r="C32" s="73"/>
-      <c r="D32" s="73"/>
-      <c r="E32" s="73"/>
-      <c r="F32" s="73"/>
-      <c r="G32" s="73"/>
+      <c r="C32" s="72"/>
+      <c r="D32" s="72"/>
+      <c r="E32" s="72"/>
+      <c r="F32" s="72"/>
+      <c r="G32" s="72"/>
     </row>
     <row r="33" s="57" customFormat="1" ht="18" customHeight="1" spans="1:7">
-      <c r="A33" s="86" t="s">
+      <c r="A33" s="85" t="s">
         <v>37</v>
       </c>
-      <c r="B33" s="89" t="s">
+      <c r="B33" s="88" t="s">
         <v>38</v>
       </c>
-      <c r="C33" s="87"/>
-      <c r="D33" s="87"/>
-      <c r="E33" s="87"/>
-      <c r="F33" s="87"/>
-      <c r="G33" s="87"/>
+      <c r="C33" s="86"/>
+      <c r="D33" s="86"/>
+      <c r="E33" s="86"/>
+      <c r="F33" s="86"/>
+      <c r="G33" s="86"/>
     </row>
     <row r="34" s="57" customFormat="1" ht="55" customHeight="1" spans="1:7">
-      <c r="A34" s="76"/>
-      <c r="B34" s="96" t="s">
+      <c r="A34" s="75"/>
+      <c r="B34" s="95" t="s">
         <v>39</v>
       </c>
-      <c r="C34" s="93"/>
-      <c r="D34" s="93"/>
-      <c r="E34" s="93"/>
-      <c r="F34" s="93"/>
-      <c r="G34" s="93"/>
+      <c r="C34" s="92"/>
+      <c r="D34" s="92"/>
+      <c r="E34" s="92"/>
+      <c r="F34" s="92"/>
+      <c r="G34" s="92"/>
     </row>
     <row r="35" s="57" customFormat="1" ht="18" customHeight="1" spans="1:7">
-      <c r="A35" s="86" t="s">
+      <c r="A35" s="85" t="s">
         <v>40</v>
       </c>
-      <c r="B35" s="87" t="s">
+      <c r="B35" s="86" t="s">
         <v>41</v>
       </c>
-      <c r="C35" s="87"/>
-      <c r="D35" s="87"/>
-      <c r="E35" s="87"/>
-      <c r="F35" s="87"/>
-      <c r="G35" s="87"/>
-    </row>
-    <row r="36" s="57" customFormat="1" ht="231" customHeight="1" spans="1:7">
-      <c r="A36" s="97"/>
-      <c r="B36" s="93" t="s">
+      <c r="C35" s="86"/>
+      <c r="D35" s="86"/>
+      <c r="E35" s="86"/>
+      <c r="F35" s="86"/>
+      <c r="G35" s="86"/>
+    </row>
+    <row r="36" s="57" customFormat="1" ht="219" customHeight="1" spans="1:7">
+      <c r="A36" s="96"/>
+      <c r="B36" s="92" t="s">
         <v>42</v>
       </c>
-      <c r="C36" s="93"/>
-      <c r="D36" s="93"/>
-      <c r="E36" s="93"/>
-      <c r="F36" s="93"/>
-      <c r="G36" s="93"/>
-    </row>
-    <row r="37" s="57" customFormat="1" ht="153" customHeight="1" spans="1:7">
-      <c r="A37" s="98"/>
-      <c r="B37" s="89" t="s">
+      <c r="C36" s="92"/>
+      <c r="D36" s="92"/>
+      <c r="E36" s="92"/>
+      <c r="F36" s="92"/>
+      <c r="G36" s="92"/>
+    </row>
+    <row r="37" s="57" customFormat="1" ht="142" customHeight="1" spans="1:7">
+      <c r="A37" s="97"/>
+      <c r="B37" s="88" t="s">
         <v>43</v>
       </c>
-      <c r="C37" s="73"/>
-      <c r="D37" s="73"/>
-      <c r="E37" s="73"/>
-      <c r="F37" s="73"/>
-      <c r="G37" s="73"/>
+      <c r="C37" s="72"/>
+      <c r="D37" s="72"/>
+      <c r="E37" s="72"/>
+      <c r="F37" s="72"/>
+      <c r="G37" s="72"/>
     </row>
     <row r="38" s="57" customFormat="1" ht="18" customHeight="1" spans="1:7">
-      <c r="A38" s="86" t="s">
+      <c r="A38" s="85" t="s">
         <v>44</v>
       </c>
-      <c r="B38" s="87" t="s">
+      <c r="B38" s="86" t="s">
         <v>45</v>
       </c>
-      <c r="C38" s="87"/>
-      <c r="D38" s="87"/>
-      <c r="E38" s="87"/>
-      <c r="F38" s="87"/>
-      <c r="G38" s="87"/>
+      <c r="C38" s="86"/>
+      <c r="D38" s="86"/>
+      <c r="E38" s="86"/>
+      <c r="F38" s="86"/>
+      <c r="G38" s="86"/>
     </row>
     <row r="39" s="57" customFormat="1" ht="194" customHeight="1" spans="1:7">
-      <c r="A39" s="76"/>
-      <c r="B39" s="75" t="s">
+      <c r="A39" s="75"/>
+      <c r="B39" s="74" t="s">
         <v>46</v>
       </c>
-      <c r="C39" s="89"/>
-      <c r="D39" s="89"/>
-      <c r="E39" s="89"/>
-      <c r="F39" s="89"/>
-      <c r="G39" s="89"/>
+      <c r="C39" s="88"/>
+      <c r="D39" s="88"/>
+      <c r="E39" s="88"/>
+      <c r="F39" s="88"/>
+      <c r="G39" s="88"/>
     </row>
     <row r="40" s="57" customFormat="1" ht="18" customHeight="1" spans="1:7">
-      <c r="A40" s="86" t="s">
+      <c r="A40" s="85" t="s">
         <v>47</v>
       </c>
-      <c r="B40" s="87" t="s">
+      <c r="B40" s="86" t="s">
         <v>48</v>
       </c>
-      <c r="C40" s="87"/>
-      <c r="D40" s="87"/>
-      <c r="E40" s="87"/>
-      <c r="F40" s="87"/>
-      <c r="G40" s="87"/>
+      <c r="C40" s="86"/>
+      <c r="D40" s="86"/>
+      <c r="E40" s="86"/>
+      <c r="F40" s="86"/>
+      <c r="G40" s="86"/>
     </row>
     <row r="41" s="57" customFormat="1" ht="34" customHeight="1" spans="1:7">
-      <c r="A41" s="92"/>
-      <c r="B41" s="89" t="s">
+      <c r="A41" s="91"/>
+      <c r="B41" s="88" t="s">
         <v>49</v>
       </c>
-      <c r="C41" s="89"/>
-      <c r="D41" s="89"/>
-      <c r="E41" s="89"/>
-      <c r="F41" s="89"/>
-      <c r="G41" s="89"/>
+      <c r="C41" s="88"/>
+      <c r="D41" s="88"/>
+      <c r="E41" s="88"/>
+      <c r="F41" s="88"/>
+      <c r="G41" s="88"/>
     </row>
     <row r="42" s="57" customFormat="1" ht="90" customHeight="1" spans="1:7">
-      <c r="A42" s="92"/>
-      <c r="B42" s="89" t="s">
+      <c r="A42" s="91"/>
+      <c r="B42" s="88" t="s">
         <v>50</v>
       </c>
-      <c r="C42" s="89"/>
-      <c r="D42" s="89"/>
-      <c r="E42" s="89"/>
-      <c r="F42" s="89"/>
-      <c r="G42" s="89"/>
+      <c r="C42" s="88"/>
+      <c r="D42" s="88"/>
+      <c r="E42" s="88"/>
+      <c r="F42" s="88"/>
+      <c r="G42" s="88"/>
     </row>
     <row r="43" s="56" customFormat="1" ht="15" customHeight="1" spans="1:7">
-      <c r="A43" s="86" t="s">
+      <c r="A43" s="85" t="s">
         <v>51</v>
       </c>
-      <c r="B43" s="73" t="s">
+      <c r="B43" s="72" t="s">
         <v>52</v>
       </c>
-      <c r="C43" s="73"/>
-      <c r="D43" s="73"/>
-      <c r="E43" s="73"/>
-      <c r="F43" s="73"/>
-      <c r="G43" s="73"/>
+      <c r="C43" s="72"/>
+      <c r="D43" s="72"/>
+      <c r="E43" s="72"/>
+      <c r="F43" s="72"/>
+      <c r="G43" s="72"/>
     </row>
     <row r="44" s="56" customFormat="1" ht="129" customHeight="1" spans="1:7">
-      <c r="A44" s="64"/>
-      <c r="B44" s="99" t="s">
+      <c r="A44" s="63"/>
+      <c r="B44" s="98" t="s">
         <v>53</v>
       </c>
-      <c r="C44" s="100"/>
-      <c r="D44" s="100"/>
-      <c r="E44" s="100"/>
-      <c r="F44" s="100"/>
-      <c r="G44" s="100"/>
+      <c r="C44" s="99"/>
+      <c r="D44" s="99"/>
+      <c r="E44" s="99"/>
+      <c r="F44" s="99"/>
+      <c r="G44" s="99"/>
     </row>
     <row r="45" s="56" customFormat="1" ht="15" customHeight="1" spans="1:7">
-      <c r="A45" s="86" t="s">
+      <c r="A45" s="85" t="s">
         <v>54</v>
       </c>
-      <c r="B45" s="73" t="s">
+      <c r="B45" s="72" t="s">
         <v>55</v>
       </c>
-      <c r="C45" s="73"/>
-      <c r="D45" s="73"/>
-      <c r="E45" s="73"/>
-      <c r="F45" s="73"/>
-      <c r="G45" s="73"/>
+      <c r="C45" s="72"/>
+      <c r="D45" s="72"/>
+      <c r="E45" s="72"/>
+      <c r="F45" s="72"/>
+      <c r="G45" s="72"/>
     </row>
     <row r="46" s="56" customFormat="1" ht="34" customHeight="1" spans="1:7">
-      <c r="A46" s="97"/>
-      <c r="B46" s="101" t="s">
+      <c r="A46" s="96"/>
+      <c r="B46" s="100" t="s">
         <v>56</v>
       </c>
-      <c r="C46" s="102"/>
-      <c r="D46" s="102"/>
-      <c r="E46" s="102"/>
-      <c r="F46" s="102"/>
-      <c r="G46" s="102"/>
+      <c r="C46" s="101"/>
+      <c r="D46" s="101"/>
+      <c r="E46" s="101"/>
+      <c r="F46" s="101"/>
+      <c r="G46" s="101"/>
     </row>
     <row r="47" s="56" customFormat="1" ht="64.5" customHeight="1" spans="1:5">
-      <c r="A47" s="64"/>
-      <c r="B47" s="103" t="s">
+      <c r="A47" s="63"/>
+      <c r="B47" s="102" t="s">
         <v>57</v>
       </c>
-      <c r="C47" s="104"/>
-      <c r="D47" s="104"/>
-      <c r="E47" s="120" t="s">
+      <c r="C47" s="103"/>
+      <c r="D47" s="103"/>
+      <c r="E47" s="119" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="48" s="56" customFormat="1" ht="15" customHeight="1" spans="1:7">
-      <c r="A48" s="64"/>
+      <c r="A48" s="63"/>
       <c r="B48" s="57"/>
       <c r="C48" s="57"/>
       <c r="D48" s="57"/>
@@ -3639,7 +3750,7 @@
       <c r="G48" s="57"/>
     </row>
     <row r="49" s="56" customFormat="1" ht="15" customHeight="1" spans="1:7">
-      <c r="A49" s="64"/>
+      <c r="A49" s="63"/>
       <c r="B49" s="57"/>
       <c r="C49" s="57"/>
       <c r="D49" s="57"/>
@@ -3648,7 +3759,7 @@
       <c r="G49" s="57"/>
     </row>
     <row r="50" s="56" customFormat="1" ht="15" customHeight="1" spans="1:7">
-      <c r="A50" s="64"/>
+      <c r="A50" s="63"/>
       <c r="B50" s="57"/>
       <c r="C50" s="57"/>
       <c r="D50" s="57"/>
@@ -3657,7 +3768,7 @@
       <c r="G50" s="57"/>
     </row>
     <row r="51" s="56" customFormat="1" ht="15" customHeight="1" spans="1:7">
-      <c r="A51" s="64"/>
+      <c r="A51" s="63"/>
       <c r="B51" s="57"/>
       <c r="C51" s="57"/>
       <c r="D51" s="57"/>
@@ -3739,7 +3850,7 @@
   </sheetPr>
   <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" topLeftCell="A16" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="D29" sqref="D29:G29"/>
     </sheetView>
   </sheetViews>

--- a/api/api/template.xlsx
+++ b/api/api/template.xlsx
@@ -1814,15 +1814,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <name val="Times New Roman Regular"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="宋体-简"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Times New Roman Regular"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -3145,8 +3145,8 @@
   </sheetPr>
   <dimension ref="A1:I51"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="121" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5:F5"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="121" zoomScaleNormal="110" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="G12" sqref="G$1:G$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -3155,8 +3155,8 @@
     <col min="2" max="2" width="14.5769230769231" style="60" customWidth="1"/>
     <col min="3" max="3" width="39.75" style="60" customWidth="1"/>
     <col min="4" max="5" width="13.5" style="60" customWidth="1"/>
-    <col min="6" max="6" width="16.3461538461538" style="60" customWidth="1"/>
-    <col min="7" max="7" width="31.7307692307692" style="60" customWidth="1"/>
+    <col min="6" max="6" width="25.0288461538462" style="60" customWidth="1"/>
+    <col min="7" max="7" width="25.6923076923077" style="60" customWidth="1"/>
     <col min="8" max="8" width="14.25" style="60" customWidth="1"/>
     <col min="9" max="9" width="9" style="60"/>
     <col min="10" max="10" width="12.75" style="60" customWidth="1"/>
@@ -3831,7 +3831,7 @@
     <mergeCell ref="E7:G8"/>
   </mergeCells>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" scale="63" fitToHeight="0" orientation="portrait"/>
+  <pageSetup paperSize="9" scale="62" fitToHeight="0" orientation="portrait"/>
   <headerFooter/>
   <rowBreaks count="1" manualBreakCount="1">
     <brk id="32" max="16383" man="1"/>
